--- a/브랜딩_B77(홍보부스).xlsx
+++ b/브랜딩_B77(홍보부스).xlsx
@@ -3309,8 +3309,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="M86" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="D101" sqref="D101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -3425,19 +3428,19 @@
     </row>
     <row r="3" spans="1:17" collapsed="1">
       <c r="A3" s="29" t="s">
-        <v>54</v>
+        <v>8</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>452</v>
+        <v>420</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="G3" s="21" t="s">
         <v>311</v>
@@ -3446,8 +3449,9 @@
         <v>310</v>
       </c>
       <c r="J3" s="21" t="s">
-        <v>789</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="M3" s="23"/>
       <c r="O3" s="30" t="s">
         <v>306</v>
       </c>
@@ -3460,28 +3464,28 @@
     </row>
     <row r="4" spans="1:17" collapsed="1">
       <c r="A4" s="29" t="s">
-        <v>55</v>
+        <v>9</v>
       </c>
       <c r="B4" s="24" t="s">
         <v>802</v>
       </c>
       <c r="C4" s="23" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>453</v>
+        <v>421</v>
       </c>
       <c r="E4" s="21" t="s">
-        <v>279</v>
+        <v>264</v>
       </c>
       <c r="G4" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="I4" s="21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J4" s="21" t="s">
         <v>789</v>
@@ -3499,16 +3503,16 @@
     </row>
     <row r="5" spans="1:17" collapsed="1">
       <c r="A5" s="29" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="C5" s="23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="E5" s="21" t="s">
         <v>264</v>
@@ -3516,11 +3520,14 @@
       <c r="G5" s="21" t="s">
         <v>311</v>
       </c>
+      <c r="H5" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I5" s="21" t="s">
         <v>310</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>800</v>
+        <v>789</v>
       </c>
       <c r="M5" s="23"/>
       <c r="O5" s="30" t="s">
@@ -3535,25 +3542,22 @@
     </row>
     <row r="6" spans="1:17" collapsed="1">
       <c r="A6" s="29" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" s="24" t="s">
         <v>802</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E6" s="21" t="s">
-        <v>264</v>
+        <v>415</v>
       </c>
       <c r="G6" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="H6" s="21" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="I6" s="21" t="s">
         <v>310</v>
@@ -3574,28 +3578,25 @@
     </row>
     <row r="7" spans="1:17" collapsed="1">
       <c r="A7" s="29" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="B7" s="24" t="s">
         <v>802</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="E7" s="21" t="s">
-        <v>273</v>
+        <v>416</v>
       </c>
       <c r="G7" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H7" s="21" t="s">
-        <v>318</v>
-      </c>
       <c r="I7" s="21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J7" s="21" t="s">
         <v>789</v>
@@ -3613,28 +3614,25 @@
     </row>
     <row r="8" spans="1:17" collapsed="1">
       <c r="A8" s="29" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G8" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="H8" s="21" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="I8" s="21" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="J8" s="21" t="s">
         <v>789</v>
@@ -3652,28 +3650,25 @@
     </row>
     <row r="9" spans="1:17" collapsed="1">
       <c r="A9" s="29" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G9" s="21" t="s">
-        <v>311</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="I9" s="21" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J9" s="21" t="s">
         <v>789</v>
@@ -3691,25 +3686,25 @@
     </row>
     <row r="10" spans="1:17" collapsed="1">
       <c r="A10" s="29" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="D10" s="23" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>415</v>
+        <v>267</v>
       </c>
       <c r="G10" s="21" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="I10" s="21" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J10" s="21" t="s">
         <v>789</v>
@@ -3766,28 +3761,25 @@
     </row>
     <row r="12" spans="1:17" collapsed="1">
       <c r="A12" s="29" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C12" s="23" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D12" s="23" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H12" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="I12" s="21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J12" s="21" t="s">
         <v>789</v>
@@ -3805,28 +3797,25 @@
     </row>
     <row r="13" spans="1:17" collapsed="1">
       <c r="A13" s="29" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C13" s="23" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D13" s="23" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G13" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H13" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="I13" s="21" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="J13" s="21" t="s">
         <v>789</v>
@@ -3844,28 +3833,25 @@
     </row>
     <row r="14" spans="1:17" collapsed="1">
       <c r="A14" s="29" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="C14" s="23" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D14" s="23" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="G14" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H14" s="21" t="s">
-        <v>317</v>
-      </c>
       <c r="I14" s="21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J14" s="21" t="s">
         <v>789</v>
@@ -3883,28 +3869,28 @@
     </row>
     <row r="15" spans="1:17" collapsed="1">
       <c r="A15" s="29" t="s">
-        <v>146</v>
+        <v>19</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C15" s="23" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="D15" s="23" t="s">
-        <v>500</v>
+        <v>432</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="G15" s="21" t="s">
         <v>313</v>
       </c>
       <c r="H15" s="21" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I15" s="21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J15" s="21" t="s">
         <v>789</v>
@@ -3922,28 +3908,28 @@
     </row>
     <row r="16" spans="1:17" collapsed="1">
       <c r="A16" s="29" t="s">
-        <v>56</v>
+        <v>21</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C16" s="23" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D16" s="23" t="s">
-        <v>454</v>
+        <v>433</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>313</v>
       </c>
       <c r="H16" s="21" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="I16" s="21" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J16" s="21" t="s">
         <v>789</v>
@@ -3961,28 +3947,28 @@
     </row>
     <row r="17" spans="1:17" collapsed="1">
       <c r="A17" s="29" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="B17" s="24" t="s">
         <v>803</v>
       </c>
       <c r="C17" s="23" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>501</v>
+        <v>434</v>
       </c>
       <c r="E17" s="21" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="G17" s="21" t="s">
         <v>313</v>
       </c>
       <c r="H17" s="21" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I17" s="21" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="J17" s="21" t="s">
         <v>789</v>
@@ -4000,28 +3986,28 @@
     </row>
     <row r="18" spans="1:17" collapsed="1">
       <c r="A18" s="29" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="B18" s="24" t="s">
         <v>804</v>
       </c>
       <c r="C18" s="23" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>502</v>
+        <v>435</v>
       </c>
       <c r="E18" s="21" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G18" s="21" t="s">
         <v>313</v>
       </c>
       <c r="H18" s="21" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="J18" s="21" t="s">
         <v>789</v>
@@ -4039,25 +4025,28 @@
     </row>
     <row r="19" spans="1:17" collapsed="1">
       <c r="A19" s="29" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D19" s="23" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>416</v>
+        <v>274</v>
       </c>
       <c r="G19" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H19" s="21" t="s">
+        <v>317</v>
+      </c>
       <c r="I19" s="21" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="J19" s="21" t="s">
         <v>789</v>
@@ -4075,25 +4064,28 @@
     </row>
     <row r="20" spans="1:17" collapsed="1">
       <c r="A20" s="29" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="G20" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H20" s="21" t="s">
+        <v>317</v>
+      </c>
       <c r="I20" s="21" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J20" s="21" t="s">
         <v>789</v>
@@ -4111,25 +4103,25 @@
     </row>
     <row r="21" spans="1:17" collapsed="1">
       <c r="A21" s="29" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D21" s="23" t="s">
-        <v>455</v>
+        <v>438</v>
       </c>
       <c r="E21" s="21" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G21" s="21" t="s">
         <v>313</v>
       </c>
       <c r="H21" s="21" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="I21" s="21" t="s">
         <v>310</v>
@@ -4150,26 +4142,23 @@
     </row>
     <row r="22" spans="1:17" collapsed="1">
       <c r="A22" s="29" t="s">
-        <v>58</v>
+        <v>27</v>
       </c>
       <c r="B22" s="24" t="s">
         <v>802</v>
       </c>
       <c r="C22" s="23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>456</v>
+        <v>439</v>
       </c>
       <c r="E22" s="21" t="s">
-        <v>281</v>
+        <v>325</v>
       </c>
       <c r="G22" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H22" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="I22" s="21" t="s">
         <v>320</v>
       </c>
@@ -4177,10 +4166,10 @@
         <v>789</v>
       </c>
       <c r="M22" s="23" t="s">
-        <v>575</v>
+        <v>566</v>
       </c>
       <c r="N22" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O22" s="30" t="s">
         <v>306</v>
@@ -4194,26 +4183,23 @@
     </row>
     <row r="23" spans="1:17" collapsed="1">
       <c r="A23" s="29" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C23" s="23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D23" s="23" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="G23" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H23" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="I23" s="21" t="s">
         <v>320</v>
       </c>
@@ -4221,10 +4207,10 @@
         <v>789</v>
       </c>
       <c r="M23" s="23" t="s">
-        <v>576</v>
+        <v>567</v>
       </c>
       <c r="N23" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O23" s="30" t="s">
         <v>306</v>
@@ -4238,29 +4224,35 @@
     </row>
     <row r="24" spans="1:17" collapsed="1">
       <c r="A24" s="29" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="B24" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C24" s="23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="E24" s="21" t="s">
-        <v>283</v>
+        <v>327</v>
       </c>
       <c r="G24" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J24" s="21" t="s">
         <v>789</v>
       </c>
+      <c r="M24" s="23" t="s">
+        <v>568</v>
+      </c>
+      <c r="N24" s="21" t="s">
+        <v>618</v>
+      </c>
       <c r="O24" s="30" t="s">
         <v>306</v>
       </c>
@@ -4273,26 +4265,23 @@
     </row>
     <row r="25" spans="1:17" collapsed="1">
       <c r="A25" s="29" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C25" s="23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D25" s="23" t="s">
-        <v>459</v>
+        <v>442</v>
       </c>
       <c r="E25" s="21" t="s">
-        <v>284</v>
+        <v>328</v>
       </c>
       <c r="G25" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H25" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="I25" s="21" t="s">
         <v>320</v>
       </c>
@@ -4300,10 +4289,10 @@
         <v>789</v>
       </c>
       <c r="M25" s="23" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="N25" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O25" s="30" t="s">
         <v>306</v>
@@ -4317,26 +4306,23 @@
     </row>
     <row r="26" spans="1:17" collapsed="1">
       <c r="A26" s="29" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="B26" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C26" s="23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D26" s="23" t="s">
-        <v>460</v>
+        <v>443</v>
       </c>
       <c r="E26" s="21" t="s">
-        <v>285</v>
+        <v>329</v>
       </c>
       <c r="G26" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H26" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="I26" s="21" t="s">
         <v>320</v>
       </c>
@@ -4344,10 +4330,10 @@
         <v>789</v>
       </c>
       <c r="M26" s="23" t="s">
-        <v>578</v>
+        <v>570</v>
       </c>
       <c r="N26" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O26" s="30" t="s">
         <v>306</v>
@@ -4361,26 +4347,23 @@
     </row>
     <row r="27" spans="1:17" collapsed="1">
       <c r="A27" s="29" t="s">
-        <v>147</v>
+        <v>37</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C27" s="23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D27" s="23" t="s">
-        <v>503</v>
+        <v>444</v>
       </c>
       <c r="E27" s="21" t="s">
-        <v>289</v>
+        <v>330</v>
       </c>
       <c r="G27" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H27" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="I27" s="21" t="s">
         <v>320</v>
       </c>
@@ -4388,10 +4371,10 @@
         <v>789</v>
       </c>
       <c r="M27" s="23" t="s">
-        <v>620</v>
+        <v>571</v>
       </c>
       <c r="N27" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>306</v>
@@ -4405,26 +4388,23 @@
     </row>
     <row r="28" spans="1:17" collapsed="1">
       <c r="A28" s="29" t="s">
-        <v>149</v>
+        <v>39</v>
       </c>
       <c r="B28" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C28" s="23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>504</v>
+        <v>445</v>
       </c>
       <c r="E28" s="21" t="s">
-        <v>290</v>
+        <v>331</v>
       </c>
       <c r="G28" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H28" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="I28" s="21" t="s">
         <v>320</v>
       </c>
@@ -4432,10 +4412,10 @@
         <v>789</v>
       </c>
       <c r="M28" s="23" t="s">
-        <v>621</v>
+        <v>572</v>
       </c>
       <c r="N28" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O28" s="30" t="s">
         <v>306</v>
@@ -4449,26 +4429,23 @@
     </row>
     <row r="29" spans="1:17" collapsed="1">
       <c r="A29" s="29" t="s">
-        <v>151</v>
+        <v>41</v>
       </c>
       <c r="B29" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C29" s="23" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D29" s="23" t="s">
-        <v>505</v>
+        <v>446</v>
       </c>
       <c r="E29" s="21" t="s">
-        <v>291</v>
+        <v>332</v>
       </c>
       <c r="G29" s="21" t="s">
         <v>313</v>
       </c>
-      <c r="H29" s="21" t="s">
-        <v>312</v>
-      </c>
       <c r="I29" s="21" t="s">
         <v>320</v>
       </c>
@@ -4476,10 +4453,10 @@
         <v>789</v>
       </c>
       <c r="M29" s="23" t="s">
-        <v>622</v>
+        <v>573</v>
       </c>
       <c r="N29" s="21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="O29" s="30" t="s">
         <v>306</v>
@@ -4493,30 +4470,35 @@
     </row>
     <row r="30" spans="1:17" collapsed="1">
       <c r="A30" s="29" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C30" s="23" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="E30" s="21" t="s">
-        <v>265</v>
+        <v>333</v>
       </c>
       <c r="G30" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="I30" s="21" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="J30" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M30" s="23"/>
+      <c r="M30" s="23" t="s">
+        <v>574</v>
+      </c>
+      <c r="N30" s="21" t="s">
+        <v>618</v>
+      </c>
       <c r="O30" s="30" t="s">
         <v>306</v>
       </c>
@@ -4529,19 +4511,19 @@
     </row>
     <row r="31" spans="1:17" collapsed="1">
       <c r="A31" s="29" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D31" s="23" t="s">
-        <v>430</v>
+        <v>448</v>
       </c>
       <c r="E31" s="21" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="G31" s="21" t="s">
         <v>313</v>
@@ -4552,7 +4534,6 @@
       <c r="J31" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M31" s="23"/>
       <c r="O31" s="30" t="s">
         <v>306</v>
       </c>
@@ -4565,22 +4546,22 @@
     </row>
     <row r="32" spans="1:17" collapsed="1">
       <c r="A32" s="29" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="B32" s="24" t="s">
         <v>802</v>
       </c>
       <c r="C32" s="23" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>431</v>
+        <v>449</v>
       </c>
       <c r="E32" s="21" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="G32" s="21" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="I32" s="21" t="s">
         <v>310</v>
@@ -4588,7 +4569,6 @@
       <c r="J32" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M32" s="23"/>
       <c r="O32" s="30" t="s">
         <v>306</v>
       </c>
@@ -4601,33 +4581,32 @@
     </row>
     <row r="33" spans="1:17" collapsed="1">
       <c r="A33" s="29" t="s">
-        <v>19</v>
+        <v>50</v>
       </c>
       <c r="B33" s="24" t="s">
         <v>802</v>
       </c>
       <c r="C33" s="23" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>432</v>
+        <v>450</v>
       </c>
       <c r="E33" s="21" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G33" s="21" t="s">
         <v>313</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I33" s="21" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J33" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M33" s="23"/>
       <c r="O33" s="30" t="s">
         <v>306</v>
       </c>
@@ -4640,33 +4619,32 @@
     </row>
     <row r="34" spans="1:17" collapsed="1">
       <c r="A34" s="29" t="s">
-        <v>26</v>
+        <v>51</v>
       </c>
       <c r="B34" s="24" t="s">
         <v>803</v>
       </c>
       <c r="C34" s="23" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>438</v>
+        <v>451</v>
       </c>
       <c r="E34" s="21" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="G34" s="21" t="s">
         <v>313</v>
       </c>
       <c r="H34" s="21" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>310</v>
+        <v>321</v>
       </c>
       <c r="J34" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M34" s="23"/>
       <c r="O34" s="30" t="s">
         <v>306</v>
       </c>
@@ -4679,30 +4657,29 @@
     </row>
     <row r="35" spans="1:17" collapsed="1">
       <c r="A35" s="29" t="s">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C35" s="23" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="E35" s="21" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="G35" s="21" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="I35" s="21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="J35" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M35" s="23"/>
       <c r="O35" s="30" t="s">
         <v>306</v>
       </c>
@@ -4715,22 +4692,25 @@
     </row>
     <row r="36" spans="1:17" collapsed="1">
       <c r="A36" s="29" t="s">
-        <v>5</v>
+        <v>55</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C36" s="23" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>427</v>
+        <v>453</v>
       </c>
       <c r="E36" s="21" t="s">
-        <v>267</v>
+        <v>279</v>
       </c>
       <c r="G36" s="21" t="s">
-        <v>316</v>
+        <v>313</v>
+      </c>
+      <c r="H36" s="21" t="s">
+        <v>309</v>
       </c>
       <c r="I36" s="21" t="s">
         <v>314</v>
@@ -4751,19 +4731,19 @@
     </row>
     <row r="37" spans="1:17" collapsed="1">
       <c r="A37" s="29" t="s">
-        <v>153</v>
+        <v>56</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C37" s="23" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>507</v>
+        <v>454</v>
       </c>
       <c r="E37" s="21" t="s">
-        <v>373</v>
+        <v>280</v>
       </c>
       <c r="G37" s="21" t="s">
         <v>313</v>
@@ -4772,17 +4752,12 @@
         <v>312</v>
       </c>
       <c r="I37" s="21" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J37" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M37" s="23" t="s">
-        <v>623</v>
-      </c>
-      <c r="N37" s="21" t="s">
-        <v>618</v>
-      </c>
+      <c r="M37" s="23"/>
       <c r="O37" s="30" t="s">
         <v>306</v>
       </c>
@@ -4795,19 +4770,19 @@
     </row>
     <row r="38" spans="1:17" collapsed="1">
       <c r="A38" s="29" t="s">
-        <v>155</v>
+        <v>57</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C38" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D38" s="23" t="s">
-        <v>508</v>
+        <v>455</v>
       </c>
       <c r="E38" s="21" t="s">
-        <v>374</v>
+        <v>280</v>
       </c>
       <c r="G38" s="21" t="s">
         <v>313</v>
@@ -4816,17 +4791,12 @@
         <v>312</v>
       </c>
       <c r="I38" s="21" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J38" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M38" s="23" t="s">
-        <v>624</v>
-      </c>
-      <c r="N38" s="21" t="s">
-        <v>618</v>
-      </c>
+      <c r="M38" s="23"/>
       <c r="O38" s="30" t="s">
         <v>306</v>
       </c>
@@ -4839,19 +4809,19 @@
     </row>
     <row r="39" spans="1:17" collapsed="1">
       <c r="A39" s="29" t="s">
-        <v>157</v>
+        <v>58</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C39" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>509</v>
+        <v>456</v>
       </c>
       <c r="E39" s="21" t="s">
-        <v>375</v>
+        <v>281</v>
       </c>
       <c r="G39" s="21" t="s">
         <v>313</v>
@@ -4866,10 +4836,10 @@
         <v>789</v>
       </c>
       <c r="M39" s="23" t="s">
-        <v>625</v>
+        <v>575</v>
       </c>
       <c r="N39" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O39" s="30" t="s">
         <v>306</v>
@@ -4883,19 +4853,19 @@
     </row>
     <row r="40" spans="1:17" collapsed="1">
       <c r="A40" s="29" t="s">
-        <v>159</v>
+        <v>60</v>
       </c>
       <c r="B40" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C40" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D40" s="23" t="s">
-        <v>510</v>
+        <v>457</v>
       </c>
       <c r="E40" s="21" t="s">
-        <v>376</v>
+        <v>282</v>
       </c>
       <c r="G40" s="21" t="s">
         <v>313</v>
@@ -4910,10 +4880,10 @@
         <v>789</v>
       </c>
       <c r="M40" s="23" t="s">
-        <v>626</v>
+        <v>576</v>
       </c>
       <c r="N40" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O40" s="30" t="s">
         <v>306</v>
@@ -4927,38 +4897,29 @@
     </row>
     <row r="41" spans="1:17" collapsed="1">
       <c r="A41" s="29" t="s">
-        <v>161</v>
+        <v>62</v>
       </c>
       <c r="B41" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C41" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>511</v>
+        <v>458</v>
       </c>
       <c r="E41" s="21" t="s">
-        <v>377</v>
+        <v>283</v>
       </c>
       <c r="G41" s="21" t="s">
-        <v>313</v>
-      </c>
-      <c r="H41" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I41" s="21" t="s">
-        <v>320</v>
+        <v>310</v>
       </c>
       <c r="J41" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M41" s="23" t="s">
-        <v>627</v>
-      </c>
-      <c r="N41" s="21" t="s">
-        <v>618</v>
-      </c>
       <c r="O41" s="30" t="s">
         <v>306</v>
       </c>
@@ -4971,19 +4932,19 @@
     </row>
     <row r="42" spans="1:17" collapsed="1">
       <c r="A42" s="29" t="s">
-        <v>163</v>
+        <v>63</v>
       </c>
       <c r="B42" s="24" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="C42" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>512</v>
+        <v>459</v>
       </c>
       <c r="E42" s="21" t="s">
-        <v>378</v>
+        <v>284</v>
       </c>
       <c r="G42" s="21" t="s">
         <v>313</v>
@@ -4998,10 +4959,10 @@
         <v>789</v>
       </c>
       <c r="M42" s="23" t="s">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="N42" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O42" s="30" t="s">
         <v>306</v>
@@ -5015,19 +4976,19 @@
     </row>
     <row r="43" spans="1:17" collapsed="1">
       <c r="A43" s="29" t="s">
-        <v>165</v>
+        <v>65</v>
       </c>
       <c r="B43" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C43" s="23" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>513</v>
+        <v>460</v>
       </c>
       <c r="E43" s="21" t="s">
-        <v>379</v>
+        <v>285</v>
       </c>
       <c r="G43" s="21" t="s">
         <v>313</v>
@@ -5042,10 +5003,10 @@
         <v>789</v>
       </c>
       <c r="M43" s="23" t="s">
-        <v>629</v>
+        <v>578</v>
       </c>
       <c r="N43" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O43" s="30" t="s">
         <v>306</v>
@@ -5059,19 +5020,19 @@
     </row>
     <row r="44" spans="1:17" collapsed="1">
       <c r="A44" s="29" t="s">
-        <v>167</v>
+        <v>67</v>
       </c>
       <c r="B44" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C44" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>514</v>
+        <v>461</v>
       </c>
       <c r="E44" s="21" t="s">
-        <v>380</v>
+        <v>334</v>
       </c>
       <c r="G44" s="21" t="s">
         <v>313</v>
@@ -5086,7 +5047,7 @@
         <v>789</v>
       </c>
       <c r="M44" s="23" t="s">
-        <v>630</v>
+        <v>579</v>
       </c>
       <c r="N44" s="21" t="s">
         <v>618</v>
@@ -5103,19 +5064,19 @@
     </row>
     <row r="45" spans="1:17" collapsed="1">
       <c r="A45" s="29" t="s">
-        <v>169</v>
+        <v>69</v>
       </c>
       <c r="B45" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C45" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>515</v>
+        <v>462</v>
       </c>
       <c r="E45" s="21" t="s">
-        <v>381</v>
+        <v>335</v>
       </c>
       <c r="G45" s="21" t="s">
         <v>313</v>
@@ -5130,7 +5091,7 @@
         <v>789</v>
       </c>
       <c r="M45" s="23" t="s">
-        <v>631</v>
+        <v>580</v>
       </c>
       <c r="N45" s="21" t="s">
         <v>618</v>
@@ -5147,19 +5108,19 @@
     </row>
     <row r="46" spans="1:17" collapsed="1">
       <c r="A46" s="29" t="s">
-        <v>171</v>
+        <v>71</v>
       </c>
       <c r="B46" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C46" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>516</v>
+        <v>463</v>
       </c>
       <c r="E46" s="21" t="s">
-        <v>382</v>
+        <v>336</v>
       </c>
       <c r="G46" s="21" t="s">
         <v>313</v>
@@ -5174,7 +5135,7 @@
         <v>789</v>
       </c>
       <c r="M46" s="23" t="s">
-        <v>632</v>
+        <v>581</v>
       </c>
       <c r="N46" s="21" t="s">
         <v>618</v>
@@ -5191,19 +5152,19 @@
     </row>
     <row r="47" spans="1:17" collapsed="1">
       <c r="A47" s="29" t="s">
-        <v>173</v>
+        <v>73</v>
       </c>
       <c r="B47" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C47" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D47" s="23" t="s">
-        <v>517</v>
+        <v>464</v>
       </c>
       <c r="E47" s="21" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="G47" s="21" t="s">
         <v>313</v>
@@ -5218,7 +5179,7 @@
         <v>789</v>
       </c>
       <c r="M47" s="23" t="s">
-        <v>633</v>
+        <v>582</v>
       </c>
       <c r="N47" s="21" t="s">
         <v>618</v>
@@ -5235,19 +5196,19 @@
     </row>
     <row r="48" spans="1:17" collapsed="1">
       <c r="A48" s="29" t="s">
-        <v>175</v>
+        <v>75</v>
       </c>
       <c r="B48" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C48" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D48" s="23" t="s">
-        <v>518</v>
+        <v>465</v>
       </c>
       <c r="E48" s="21" t="s">
-        <v>384</v>
+        <v>338</v>
       </c>
       <c r="G48" s="21" t="s">
         <v>313</v>
@@ -5262,7 +5223,7 @@
         <v>789</v>
       </c>
       <c r="M48" s="23" t="s">
-        <v>634</v>
+        <v>583</v>
       </c>
       <c r="N48" s="21" t="s">
         <v>618</v>
@@ -5279,19 +5240,19 @@
     </row>
     <row r="49" spans="1:17" collapsed="1">
       <c r="A49" s="29" t="s">
-        <v>177</v>
+        <v>77</v>
       </c>
       <c r="B49" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D49" s="23" t="s">
-        <v>519</v>
+        <v>466</v>
       </c>
       <c r="E49" s="21" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="G49" s="21" t="s">
         <v>313</v>
@@ -5306,7 +5267,7 @@
         <v>789</v>
       </c>
       <c r="M49" s="23" t="s">
-        <v>635</v>
+        <v>584</v>
       </c>
       <c r="N49" s="21" t="s">
         <v>618</v>
@@ -5323,19 +5284,19 @@
     </row>
     <row r="50" spans="1:17" collapsed="1">
       <c r="A50" s="29" t="s">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="B50" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C50" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D50" s="23" t="s">
-        <v>520</v>
+        <v>467</v>
       </c>
       <c r="E50" s="21" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="G50" s="21" t="s">
         <v>313</v>
@@ -5350,7 +5311,7 @@
         <v>789</v>
       </c>
       <c r="M50" s="23" t="s">
-        <v>636</v>
+        <v>585</v>
       </c>
       <c r="N50" s="21" t="s">
         <v>618</v>
@@ -5367,19 +5328,19 @@
     </row>
     <row r="51" spans="1:17" collapsed="1">
       <c r="A51" s="29" t="s">
-        <v>181</v>
+        <v>81</v>
       </c>
       <c r="B51" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C51" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D51" s="23" t="s">
-        <v>521</v>
+        <v>468</v>
       </c>
       <c r="E51" s="21" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="G51" s="21" t="s">
         <v>313</v>
@@ -5394,7 +5355,7 @@
         <v>789</v>
       </c>
       <c r="M51" s="23" t="s">
-        <v>637</v>
+        <v>586</v>
       </c>
       <c r="N51" s="21" t="s">
         <v>618</v>
@@ -5411,19 +5372,19 @@
     </row>
     <row r="52" spans="1:17" collapsed="1">
       <c r="A52" s="29" t="s">
-        <v>183</v>
+        <v>83</v>
       </c>
       <c r="B52" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C52" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D52" s="23" t="s">
-        <v>522</v>
+        <v>469</v>
       </c>
       <c r="E52" s="21" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="G52" s="21" t="s">
         <v>313</v>
@@ -5438,7 +5399,7 @@
         <v>789</v>
       </c>
       <c r="M52" s="23" t="s">
-        <v>638</v>
+        <v>587</v>
       </c>
       <c r="N52" s="21" t="s">
         <v>618</v>
@@ -5455,19 +5416,19 @@
     </row>
     <row r="53" spans="1:17" collapsed="1">
       <c r="A53" s="29" t="s">
-        <v>185</v>
+        <v>85</v>
       </c>
       <c r="B53" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C53" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D53" s="23" t="s">
-        <v>523</v>
+        <v>470</v>
       </c>
       <c r="E53" s="21" t="s">
-        <v>389</v>
+        <v>343</v>
       </c>
       <c r="G53" s="21" t="s">
         <v>313</v>
@@ -5482,7 +5443,7 @@
         <v>789</v>
       </c>
       <c r="M53" s="23" t="s">
-        <v>639</v>
+        <v>588</v>
       </c>
       <c r="N53" s="21" t="s">
         <v>618</v>
@@ -5499,19 +5460,19 @@
     </row>
     <row r="54" spans="1:17" collapsed="1">
       <c r="A54" s="29" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="B54" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C54" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D54" s="23" t="s">
-        <v>524</v>
+        <v>471</v>
       </c>
       <c r="E54" s="21" t="s">
-        <v>390</v>
+        <v>344</v>
       </c>
       <c r="G54" s="21" t="s">
         <v>313</v>
@@ -5526,7 +5487,7 @@
         <v>789</v>
       </c>
       <c r="M54" s="23" t="s">
-        <v>640</v>
+        <v>589</v>
       </c>
       <c r="N54" s="21" t="s">
         <v>618</v>
@@ -5543,19 +5504,19 @@
     </row>
     <row r="55" spans="1:17" collapsed="1">
       <c r="A55" s="29" t="s">
-        <v>189</v>
+        <v>89</v>
       </c>
       <c r="B55" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C55" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D55" s="23" t="s">
-        <v>525</v>
+        <v>472</v>
       </c>
       <c r="E55" s="21" t="s">
-        <v>391</v>
+        <v>345</v>
       </c>
       <c r="G55" s="21" t="s">
         <v>313</v>
@@ -5570,7 +5531,7 @@
         <v>789</v>
       </c>
       <c r="M55" s="23" t="s">
-        <v>641</v>
+        <v>590</v>
       </c>
       <c r="N55" s="21" t="s">
         <v>618</v>
@@ -5587,19 +5548,19 @@
     </row>
     <row r="56" spans="1:17" collapsed="1">
       <c r="A56" s="29" t="s">
-        <v>191</v>
+        <v>91</v>
       </c>
       <c r="B56" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C56" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D56" s="23" t="s">
-        <v>526</v>
+        <v>473</v>
       </c>
       <c r="E56" s="21" t="s">
-        <v>392</v>
+        <v>346</v>
       </c>
       <c r="G56" s="21" t="s">
         <v>313</v>
@@ -5614,7 +5575,7 @@
         <v>789</v>
       </c>
       <c r="M56" s="23" t="s">
-        <v>642</v>
+        <v>591</v>
       </c>
       <c r="N56" s="21" t="s">
         <v>618</v>
@@ -5631,19 +5592,19 @@
     </row>
     <row r="57" spans="1:17" collapsed="1">
       <c r="A57" s="29" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="B57" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C57" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D57" s="23" t="s">
-        <v>527</v>
+        <v>474</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>393</v>
+        <v>347</v>
       </c>
       <c r="G57" s="21" t="s">
         <v>313</v>
@@ -5658,7 +5619,7 @@
         <v>789</v>
       </c>
       <c r="M57" s="23" t="s">
-        <v>643</v>
+        <v>592</v>
       </c>
       <c r="N57" s="21" t="s">
         <v>618</v>
@@ -5675,19 +5636,19 @@
     </row>
     <row r="58" spans="1:17" collapsed="1">
       <c r="A58" s="29" t="s">
-        <v>195</v>
+        <v>95</v>
       </c>
       <c r="B58" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C58" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D58" s="23" t="s">
-        <v>528</v>
+        <v>475</v>
       </c>
       <c r="E58" s="21" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="G58" s="21" t="s">
         <v>313</v>
@@ -5702,7 +5663,7 @@
         <v>789</v>
       </c>
       <c r="M58" s="23" t="s">
-        <v>644</v>
+        <v>593</v>
       </c>
       <c r="N58" s="21" t="s">
         <v>618</v>
@@ -5719,19 +5680,19 @@
     </row>
     <row r="59" spans="1:17" collapsed="1">
       <c r="A59" s="29" t="s">
-        <v>197</v>
+        <v>97</v>
       </c>
       <c r="B59" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C59" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D59" s="23" t="s">
-        <v>529</v>
+        <v>476</v>
       </c>
       <c r="E59" s="21" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="G59" s="21" t="s">
         <v>313</v>
@@ -5746,7 +5707,7 @@
         <v>789</v>
       </c>
       <c r="M59" s="23" t="s">
-        <v>645</v>
+        <v>594</v>
       </c>
       <c r="N59" s="21" t="s">
         <v>618</v>
@@ -5763,19 +5724,19 @@
     </row>
     <row r="60" spans="1:17" collapsed="1">
       <c r="A60" s="29" t="s">
-        <v>199</v>
+        <v>99</v>
       </c>
       <c r="B60" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C60" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D60" s="23" t="s">
-        <v>530</v>
+        <v>477</v>
       </c>
       <c r="E60" s="21" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="G60" s="21" t="s">
         <v>313</v>
@@ -5790,7 +5751,7 @@
         <v>789</v>
       </c>
       <c r="M60" s="23" t="s">
-        <v>646</v>
+        <v>595</v>
       </c>
       <c r="N60" s="21" t="s">
         <v>618</v>
@@ -5807,19 +5768,19 @@
     </row>
     <row r="61" spans="1:17" collapsed="1">
       <c r="A61" s="29" t="s">
-        <v>201</v>
+        <v>101</v>
       </c>
       <c r="B61" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C61" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D61" s="23" t="s">
-        <v>531</v>
+        <v>478</v>
       </c>
       <c r="E61" s="21" t="s">
-        <v>397</v>
+        <v>351</v>
       </c>
       <c r="G61" s="21" t="s">
         <v>313</v>
@@ -5834,7 +5795,7 @@
         <v>789</v>
       </c>
       <c r="M61" s="23" t="s">
-        <v>647</v>
+        <v>596</v>
       </c>
       <c r="N61" s="21" t="s">
         <v>618</v>
@@ -5851,19 +5812,19 @@
     </row>
     <row r="62" spans="1:17" collapsed="1">
       <c r="A62" s="29" t="s">
-        <v>203</v>
+        <v>103</v>
       </c>
       <c r="B62" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C62" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>532</v>
+        <v>479</v>
       </c>
       <c r="E62" s="21" t="s">
-        <v>398</v>
+        <v>352</v>
       </c>
       <c r="G62" s="21" t="s">
         <v>313</v>
@@ -5878,7 +5839,7 @@
         <v>789</v>
       </c>
       <c r="M62" s="23" t="s">
-        <v>648</v>
+        <v>597</v>
       </c>
       <c r="N62" s="21" t="s">
         <v>618</v>
@@ -5895,19 +5856,19 @@
     </row>
     <row r="63" spans="1:17" collapsed="1">
       <c r="A63" s="29" t="s">
-        <v>205</v>
+        <v>105</v>
       </c>
       <c r="B63" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C63" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D63" s="23" t="s">
-        <v>533</v>
+        <v>480</v>
       </c>
       <c r="E63" s="21" t="s">
-        <v>399</v>
+        <v>353</v>
       </c>
       <c r="G63" s="21" t="s">
         <v>313</v>
@@ -5922,7 +5883,7 @@
         <v>789</v>
       </c>
       <c r="M63" s="23" t="s">
-        <v>649</v>
+        <v>598</v>
       </c>
       <c r="N63" s="21" t="s">
         <v>618</v>
@@ -5939,19 +5900,19 @@
     </row>
     <row r="64" spans="1:17" collapsed="1">
       <c r="A64" s="29" t="s">
-        <v>207</v>
+        <v>107</v>
       </c>
       <c r="B64" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C64" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D64" s="23" t="s">
-        <v>534</v>
+        <v>481</v>
       </c>
       <c r="E64" s="21" t="s">
-        <v>400</v>
+        <v>354</v>
       </c>
       <c r="G64" s="21" t="s">
         <v>313</v>
@@ -5966,7 +5927,7 @@
         <v>789</v>
       </c>
       <c r="M64" s="23" t="s">
-        <v>650</v>
+        <v>599</v>
       </c>
       <c r="N64" s="21" t="s">
         <v>618</v>
@@ -5983,19 +5944,19 @@
     </row>
     <row r="65" spans="1:17" collapsed="1">
       <c r="A65" s="29" t="s">
-        <v>209</v>
+        <v>109</v>
       </c>
       <c r="B65" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C65" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>535</v>
+        <v>482</v>
       </c>
       <c r="E65" s="21" t="s">
-        <v>401</v>
+        <v>355</v>
       </c>
       <c r="G65" s="21" t="s">
         <v>313</v>
@@ -6010,7 +5971,7 @@
         <v>789</v>
       </c>
       <c r="M65" s="23" t="s">
-        <v>651</v>
+        <v>600</v>
       </c>
       <c r="N65" s="21" t="s">
         <v>618</v>
@@ -6027,19 +5988,19 @@
     </row>
     <row r="66" spans="1:17" collapsed="1">
       <c r="A66" s="29" t="s">
-        <v>211</v>
+        <v>111</v>
       </c>
       <c r="B66" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C66" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D66" s="23" t="s">
-        <v>536</v>
+        <v>483</v>
       </c>
       <c r="E66" s="21" t="s">
-        <v>402</v>
+        <v>356</v>
       </c>
       <c r="G66" s="21" t="s">
         <v>313</v>
@@ -6054,7 +6015,7 @@
         <v>789</v>
       </c>
       <c r="M66" s="23" t="s">
-        <v>652</v>
+        <v>601</v>
       </c>
       <c r="N66" s="21" t="s">
         <v>618</v>
@@ -6071,19 +6032,19 @@
     </row>
     <row r="67" spans="1:17" collapsed="1">
       <c r="A67" s="29" t="s">
-        <v>213</v>
+        <v>113</v>
       </c>
       <c r="B67" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C67" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D67" s="23" t="s">
-        <v>537</v>
+        <v>484</v>
       </c>
       <c r="E67" s="21" t="s">
-        <v>403</v>
+        <v>357</v>
       </c>
       <c r="G67" s="21" t="s">
         <v>313</v>
@@ -6098,7 +6059,7 @@
         <v>789</v>
       </c>
       <c r="M67" s="23" t="s">
-        <v>653</v>
+        <v>602</v>
       </c>
       <c r="N67" s="21" t="s">
         <v>618</v>
@@ -6115,19 +6076,19 @@
     </row>
     <row r="68" spans="1:17" collapsed="1">
       <c r="A68" s="29" t="s">
-        <v>215</v>
+        <v>115</v>
       </c>
       <c r="B68" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C68" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D68" s="23" t="s">
-        <v>538</v>
+        <v>485</v>
       </c>
       <c r="E68" s="21" t="s">
-        <v>404</v>
+        <v>358</v>
       </c>
       <c r="G68" s="21" t="s">
         <v>313</v>
@@ -6142,7 +6103,7 @@
         <v>789</v>
       </c>
       <c r="M68" s="23" t="s">
-        <v>654</v>
+        <v>603</v>
       </c>
       <c r="N68" s="21" t="s">
         <v>618</v>
@@ -6159,19 +6120,19 @@
     </row>
     <row r="69" spans="1:17" collapsed="1">
       <c r="A69" s="29" t="s">
-        <v>217</v>
+        <v>117</v>
       </c>
       <c r="B69" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C69" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D69" s="23" t="s">
-        <v>539</v>
+        <v>486</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>405</v>
+        <v>359</v>
       </c>
       <c r="G69" s="21" t="s">
         <v>313</v>
@@ -6186,7 +6147,7 @@
         <v>789</v>
       </c>
       <c r="M69" s="23" t="s">
-        <v>655</v>
+        <v>604</v>
       </c>
       <c r="N69" s="21" t="s">
         <v>618</v>
@@ -6203,19 +6164,19 @@
     </row>
     <row r="70" spans="1:17" collapsed="1">
       <c r="A70" s="29" t="s">
-        <v>219</v>
+        <v>119</v>
       </c>
       <c r="B70" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C70" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D70" s="23" t="s">
-        <v>540</v>
+        <v>487</v>
       </c>
       <c r="E70" s="21" t="s">
-        <v>406</v>
+        <v>360</v>
       </c>
       <c r="G70" s="21" t="s">
         <v>313</v>
@@ -6230,7 +6191,7 @@
         <v>789</v>
       </c>
       <c r="M70" s="23" t="s">
-        <v>656</v>
+        <v>605</v>
       </c>
       <c r="N70" s="21" t="s">
         <v>618</v>
@@ -6247,19 +6208,19 @@
     </row>
     <row r="71" spans="1:17" collapsed="1">
       <c r="A71" s="29" t="s">
-        <v>221</v>
+        <v>121</v>
       </c>
       <c r="B71" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C71" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D71" s="23" t="s">
-        <v>541</v>
+        <v>488</v>
       </c>
       <c r="E71" s="21" t="s">
-        <v>407</v>
+        <v>361</v>
       </c>
       <c r="G71" s="21" t="s">
         <v>313</v>
@@ -6274,7 +6235,7 @@
         <v>789</v>
       </c>
       <c r="M71" s="23" t="s">
-        <v>657</v>
+        <v>606</v>
       </c>
       <c r="N71" s="21" t="s">
         <v>618</v>
@@ -6291,19 +6252,19 @@
     </row>
     <row r="72" spans="1:17" collapsed="1">
       <c r="A72" s="29" t="s">
-        <v>223</v>
+        <v>123</v>
       </c>
       <c r="B72" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C72" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D72" s="23" t="s">
-        <v>542</v>
+        <v>489</v>
       </c>
       <c r="E72" s="21" t="s">
-        <v>408</v>
+        <v>362</v>
       </c>
       <c r="G72" s="21" t="s">
         <v>313</v>
@@ -6318,7 +6279,7 @@
         <v>789</v>
       </c>
       <c r="M72" s="23" t="s">
-        <v>658</v>
+        <v>607</v>
       </c>
       <c r="N72" s="21" t="s">
         <v>618</v>
@@ -6335,19 +6296,19 @@
     </row>
     <row r="73" spans="1:17" collapsed="1">
       <c r="A73" s="29" t="s">
-        <v>225</v>
+        <v>125</v>
       </c>
       <c r="B73" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C73" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D73" s="23" t="s">
-        <v>543</v>
+        <v>490</v>
       </c>
       <c r="E73" s="21" t="s">
-        <v>409</v>
+        <v>363</v>
       </c>
       <c r="G73" s="21" t="s">
         <v>313</v>
@@ -6362,7 +6323,7 @@
         <v>789</v>
       </c>
       <c r="M73" s="23" t="s">
-        <v>659</v>
+        <v>608</v>
       </c>
       <c r="N73" s="21" t="s">
         <v>618</v>
@@ -6379,19 +6340,19 @@
     </row>
     <row r="74" spans="1:17" collapsed="1">
       <c r="A74" s="29" t="s">
-        <v>227</v>
+        <v>127</v>
       </c>
       <c r="B74" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C74" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D74" s="23" t="s">
-        <v>544</v>
+        <v>491</v>
       </c>
       <c r="E74" s="21" t="s">
-        <v>410</v>
+        <v>364</v>
       </c>
       <c r="G74" s="21" t="s">
         <v>313</v>
@@ -6406,7 +6367,7 @@
         <v>789</v>
       </c>
       <c r="M74" s="23" t="s">
-        <v>660</v>
+        <v>609</v>
       </c>
       <c r="N74" s="21" t="s">
         <v>618</v>
@@ -6423,19 +6384,19 @@
     </row>
     <row r="75" spans="1:17" collapsed="1">
       <c r="A75" s="29" t="s">
-        <v>229</v>
+        <v>129</v>
       </c>
       <c r="B75" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C75" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D75" s="23" t="s">
-        <v>545</v>
+        <v>492</v>
       </c>
       <c r="E75" s="21" t="s">
-        <v>411</v>
+        <v>365</v>
       </c>
       <c r="G75" s="21" t="s">
         <v>313</v>
@@ -6450,7 +6411,7 @@
         <v>789</v>
       </c>
       <c r="M75" s="23" t="s">
-        <v>661</v>
+        <v>610</v>
       </c>
       <c r="N75" s="21" t="s">
         <v>618</v>
@@ -6467,19 +6428,19 @@
     </row>
     <row r="76" spans="1:17" collapsed="1">
       <c r="A76" s="29" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="B76" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C76" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D76" s="23" t="s">
-        <v>546</v>
+        <v>493</v>
       </c>
       <c r="E76" s="21" t="s">
-        <v>412</v>
+        <v>366</v>
       </c>
       <c r="G76" s="21" t="s">
         <v>313</v>
@@ -6494,7 +6455,7 @@
         <v>789</v>
       </c>
       <c r="M76" s="23" t="s">
-        <v>662</v>
+        <v>611</v>
       </c>
       <c r="N76" s="21" t="s">
         <v>618</v>
@@ -6511,19 +6472,19 @@
     </row>
     <row r="77" spans="1:17" collapsed="1">
       <c r="A77" s="29" t="s">
-        <v>233</v>
+        <v>133</v>
       </c>
       <c r="B77" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C77" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D77" s="23" t="s">
-        <v>547</v>
+        <v>494</v>
       </c>
       <c r="E77" s="21" t="s">
-        <v>413</v>
+        <v>367</v>
       </c>
       <c r="G77" s="21" t="s">
         <v>313</v>
@@ -6538,7 +6499,7 @@
         <v>789</v>
       </c>
       <c r="M77" s="23" t="s">
-        <v>663</v>
+        <v>612</v>
       </c>
       <c r="N77" s="21" t="s">
         <v>618</v>
@@ -6555,19 +6516,19 @@
     </row>
     <row r="78" spans="1:17" collapsed="1">
       <c r="A78" s="29" t="s">
-        <v>235</v>
+        <v>135</v>
       </c>
       <c r="B78" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C78" s="23" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D78" s="23" t="s">
-        <v>548</v>
+        <v>495</v>
       </c>
       <c r="E78" s="21" t="s">
-        <v>414</v>
+        <v>368</v>
       </c>
       <c r="G78" s="21" t="s">
         <v>313</v>
@@ -6582,7 +6543,7 @@
         <v>789</v>
       </c>
       <c r="M78" s="23" t="s">
-        <v>664</v>
+        <v>613</v>
       </c>
       <c r="N78" s="21" t="s">
         <v>618</v>
@@ -6599,7 +6560,7 @@
     </row>
     <row r="79" spans="1:17" collapsed="1">
       <c r="A79" s="29" t="s">
-        <v>67</v>
+        <v>137</v>
       </c>
       <c r="B79" s="24" t="s">
         <v>805</v>
@@ -6608,10 +6569,10 @@
         <v>304</v>
       </c>
       <c r="D79" s="23" t="s">
-        <v>461</v>
+        <v>496</v>
       </c>
       <c r="E79" s="21" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="G79" s="21" t="s">
         <v>313</v>
@@ -6626,7 +6587,7 @@
         <v>789</v>
       </c>
       <c r="M79" s="23" t="s">
-        <v>579</v>
+        <v>614</v>
       </c>
       <c r="N79" s="21" t="s">
         <v>618</v>
@@ -6643,7 +6604,7 @@
     </row>
     <row r="80" spans="1:17" collapsed="1">
       <c r="A80" s="29" t="s">
-        <v>69</v>
+        <v>139</v>
       </c>
       <c r="B80" s="24" t="s">
         <v>805</v>
@@ -6652,10 +6613,10 @@
         <v>304</v>
       </c>
       <c r="D80" s="23" t="s">
-        <v>462</v>
+        <v>497</v>
       </c>
       <c r="E80" s="21" t="s">
-        <v>335</v>
+        <v>370</v>
       </c>
       <c r="G80" s="21" t="s">
         <v>313</v>
@@ -6670,7 +6631,7 @@
         <v>789</v>
       </c>
       <c r="M80" s="23" t="s">
-        <v>580</v>
+        <v>615</v>
       </c>
       <c r="N80" s="21" t="s">
         <v>618</v>
@@ -6687,7 +6648,7 @@
     </row>
     <row r="81" spans="1:17" collapsed="1">
       <c r="A81" s="29" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B81" s="24" t="s">
         <v>805</v>
@@ -6696,10 +6657,10 @@
         <v>304</v>
       </c>
       <c r="D81" s="23" t="s">
-        <v>463</v>
+        <v>498</v>
       </c>
       <c r="E81" s="21" t="s">
-        <v>336</v>
+        <v>371</v>
       </c>
       <c r="G81" s="21" t="s">
         <v>313</v>
@@ -6714,7 +6675,7 @@
         <v>789</v>
       </c>
       <c r="M81" s="23" t="s">
-        <v>581</v>
+        <v>616</v>
       </c>
       <c r="N81" s="21" t="s">
         <v>618</v>
@@ -6731,7 +6692,7 @@
     </row>
     <row r="82" spans="1:17" collapsed="1">
       <c r="A82" s="29" t="s">
-        <v>73</v>
+        <v>143</v>
       </c>
       <c r="B82" s="24" t="s">
         <v>805</v>
@@ -6740,10 +6701,10 @@
         <v>304</v>
       </c>
       <c r="D82" s="23" t="s">
-        <v>464</v>
+        <v>499</v>
       </c>
       <c r="E82" s="21" t="s">
-        <v>337</v>
+        <v>372</v>
       </c>
       <c r="G82" s="21" t="s">
         <v>313</v>
@@ -6758,7 +6719,7 @@
         <v>789</v>
       </c>
       <c r="M82" s="23" t="s">
-        <v>582</v>
+        <v>617</v>
       </c>
       <c r="N82" s="21" t="s">
         <v>618</v>
@@ -6775,19 +6736,19 @@
     </row>
     <row r="83" spans="1:17" collapsed="1">
       <c r="A83" s="29" t="s">
-        <v>75</v>
+        <v>146</v>
       </c>
       <c r="B83" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C83" s="23" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="D83" s="23" t="s">
-        <v>465</v>
+        <v>500</v>
       </c>
       <c r="E83" s="21" t="s">
-        <v>338</v>
+        <v>286</v>
       </c>
       <c r="G83" s="21" t="s">
         <v>313</v>
@@ -6796,17 +6757,12 @@
         <v>312</v>
       </c>
       <c r="I83" s="21" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="J83" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M83" s="23" t="s">
-        <v>583</v>
-      </c>
-      <c r="N83" s="21" t="s">
-        <v>618</v>
-      </c>
+      <c r="M83" s="23"/>
       <c r="O83" s="30" t="s">
         <v>306</v>
       </c>
@@ -6819,19 +6775,19 @@
     </row>
     <row r="84" spans="1:17" collapsed="1">
       <c r="A84" s="29" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="B84" s="24" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="C84" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D84" s="23" t="s">
-        <v>466</v>
+        <v>501</v>
       </c>
       <c r="E84" s="21" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="G84" s="21" t="s">
         <v>313</v>
@@ -6840,17 +6796,12 @@
         <v>312</v>
       </c>
       <c r="I84" s="21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J84" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M84" s="23" t="s">
-        <v>584</v>
-      </c>
-      <c r="N84" s="21" t="s">
-        <v>618</v>
-      </c>
+      <c r="M84" s="23"/>
       <c r="O84" s="30" t="s">
         <v>306</v>
       </c>
@@ -6863,19 +6814,19 @@
     </row>
     <row r="85" spans="1:17" collapsed="1">
       <c r="A85" s="29" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
       <c r="B85" s="24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C85" s="23" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D85" s="23" t="s">
-        <v>467</v>
+        <v>502</v>
       </c>
       <c r="E85" s="21" t="s">
-        <v>340</v>
+        <v>288</v>
       </c>
       <c r="G85" s="21" t="s">
         <v>313</v>
@@ -6884,17 +6835,12 @@
         <v>312</v>
       </c>
       <c r="I85" s="21" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="J85" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M85" s="23" t="s">
-        <v>585</v>
-      </c>
-      <c r="N85" s="21" t="s">
-        <v>618</v>
-      </c>
+      <c r="M85" s="23"/>
       <c r="O85" s="30" t="s">
         <v>306</v>
       </c>
@@ -6907,19 +6853,19 @@
     </row>
     <row r="86" spans="1:17" collapsed="1">
       <c r="A86" s="29" t="s">
-        <v>81</v>
+        <v>147</v>
       </c>
       <c r="B86" s="24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C86" s="23" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D86" s="23" t="s">
-        <v>468</v>
+        <v>503</v>
       </c>
       <c r="E86" s="21" t="s">
-        <v>341</v>
+        <v>289</v>
       </c>
       <c r="G86" s="21" t="s">
         <v>313</v>
@@ -6934,10 +6880,10 @@
         <v>789</v>
       </c>
       <c r="M86" s="23" t="s">
-        <v>586</v>
+        <v>620</v>
       </c>
       <c r="N86" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O86" s="30" t="s">
         <v>306</v>
@@ -6951,19 +6897,19 @@
     </row>
     <row r="87" spans="1:17" collapsed="1">
       <c r="A87" s="29" t="s">
-        <v>83</v>
+        <v>149</v>
       </c>
       <c r="B87" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C87" s="23" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D87" s="23" t="s">
-        <v>469</v>
+        <v>504</v>
       </c>
       <c r="E87" s="21" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="G87" s="21" t="s">
         <v>313</v>
@@ -6978,10 +6924,10 @@
         <v>789</v>
       </c>
       <c r="M87" s="23" t="s">
-        <v>587</v>
+        <v>621</v>
       </c>
       <c r="N87" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O87" s="30" t="s">
         <v>306</v>
@@ -6995,19 +6941,19 @@
     </row>
     <row r="88" spans="1:17" collapsed="1">
       <c r="A88" s="29" t="s">
-        <v>85</v>
+        <v>151</v>
       </c>
       <c r="B88" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C88" s="23" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
       <c r="D88" s="23" t="s">
-        <v>470</v>
+        <v>505</v>
       </c>
       <c r="E88" s="21" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="G88" s="21" t="s">
         <v>313</v>
@@ -7022,10 +6968,10 @@
         <v>789</v>
       </c>
       <c r="M88" s="23" t="s">
-        <v>588</v>
+        <v>622</v>
       </c>
       <c r="N88" s="21" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="O88" s="30" t="s">
         <v>306</v>
@@ -7039,19 +6985,19 @@
     </row>
     <row r="89" spans="1:17" collapsed="1">
       <c r="A89" s="29" t="s">
-        <v>87</v>
+        <v>52</v>
       </c>
       <c r="B89" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C89" s="23" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D89" s="23" t="s">
-        <v>471</v>
+        <v>506</v>
       </c>
       <c r="E89" s="21" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="G89" s="21" t="s">
         <v>313</v>
@@ -7060,17 +7006,11 @@
         <v>312</v>
       </c>
       <c r="I89" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J89" s="21" t="s">
         <v>789</v>
       </c>
-      <c r="M89" s="23" t="s">
-        <v>589</v>
-      </c>
-      <c r="N89" s="21" t="s">
-        <v>618</v>
-      </c>
       <c r="O89" s="30" t="s">
         <v>306</v>
       </c>
@@ -7083,19 +7023,19 @@
     </row>
     <row r="90" spans="1:17" collapsed="1">
       <c r="A90" s="29" t="s">
-        <v>89</v>
+        <v>153</v>
       </c>
       <c r="B90" s="24" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C90" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D90" s="23" t="s">
-        <v>472</v>
+        <v>507</v>
       </c>
       <c r="E90" s="21" t="s">
-        <v>345</v>
+        <v>373</v>
       </c>
       <c r="G90" s="21" t="s">
         <v>313</v>
@@ -7110,7 +7050,7 @@
         <v>789</v>
       </c>
       <c r="M90" s="23" t="s">
-        <v>590</v>
+        <v>623</v>
       </c>
       <c r="N90" s="21" t="s">
         <v>618</v>
@@ -7127,19 +7067,19 @@
     </row>
     <row r="91" spans="1:17" collapsed="1">
       <c r="A91" s="29" t="s">
-        <v>91</v>
+        <v>155</v>
       </c>
       <c r="B91" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C91" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D91" s="23" t="s">
-        <v>473</v>
+        <v>508</v>
       </c>
       <c r="E91" s="21" t="s">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="G91" s="21" t="s">
         <v>313</v>
@@ -7154,7 +7094,7 @@
         <v>789</v>
       </c>
       <c r="M91" s="23" t="s">
-        <v>591</v>
+        <v>624</v>
       </c>
       <c r="N91" s="21" t="s">
         <v>618</v>
@@ -7171,19 +7111,19 @@
     </row>
     <row r="92" spans="1:17" collapsed="1">
       <c r="A92" s="29" t="s">
-        <v>93</v>
+        <v>157</v>
       </c>
       <c r="B92" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C92" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D92" s="23" t="s">
-        <v>474</v>
+        <v>509</v>
       </c>
       <c r="E92" s="21" t="s">
-        <v>347</v>
+        <v>375</v>
       </c>
       <c r="G92" s="21" t="s">
         <v>313</v>
@@ -7198,7 +7138,7 @@
         <v>789</v>
       </c>
       <c r="M92" s="23" t="s">
-        <v>592</v>
+        <v>625</v>
       </c>
       <c r="N92" s="21" t="s">
         <v>618</v>
@@ -7215,19 +7155,19 @@
     </row>
     <row r="93" spans="1:17" collapsed="1">
       <c r="A93" s="29" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B93" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C93" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D93" s="23" t="s">
-        <v>475</v>
+        <v>510</v>
       </c>
       <c r="E93" s="21" t="s">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="G93" s="21" t="s">
         <v>313</v>
@@ -7242,7 +7182,7 @@
         <v>789</v>
       </c>
       <c r="M93" s="23" t="s">
-        <v>593</v>
+        <v>626</v>
       </c>
       <c r="N93" s="21" t="s">
         <v>618</v>
@@ -7259,19 +7199,19 @@
     </row>
     <row r="94" spans="1:17" collapsed="1">
       <c r="A94" s="29" t="s">
-        <v>97</v>
+        <v>161</v>
       </c>
       <c r="B94" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C94" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D94" s="23" t="s">
-        <v>476</v>
+        <v>511</v>
       </c>
       <c r="E94" s="21" t="s">
-        <v>349</v>
+        <v>377</v>
       </c>
       <c r="G94" s="21" t="s">
         <v>313</v>
@@ -7286,7 +7226,7 @@
         <v>789</v>
       </c>
       <c r="M94" s="23" t="s">
-        <v>594</v>
+        <v>627</v>
       </c>
       <c r="N94" s="21" t="s">
         <v>618</v>
@@ -7303,19 +7243,19 @@
     </row>
     <row r="95" spans="1:17" collapsed="1">
       <c r="A95" s="29" t="s">
-        <v>99</v>
+        <v>163</v>
       </c>
       <c r="B95" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C95" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D95" s="23" t="s">
-        <v>477</v>
+        <v>512</v>
       </c>
       <c r="E95" s="21" t="s">
-        <v>350</v>
+        <v>378</v>
       </c>
       <c r="G95" s="21" t="s">
         <v>313</v>
@@ -7330,7 +7270,7 @@
         <v>789</v>
       </c>
       <c r="M95" s="23" t="s">
-        <v>595</v>
+        <v>628</v>
       </c>
       <c r="N95" s="21" t="s">
         <v>618</v>
@@ -7347,19 +7287,19 @@
     </row>
     <row r="96" spans="1:17" collapsed="1">
       <c r="A96" s="29" t="s">
-        <v>101</v>
+        <v>165</v>
       </c>
       <c r="B96" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C96" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D96" s="23" t="s">
-        <v>478</v>
+        <v>513</v>
       </c>
       <c r="E96" s="21" t="s">
-        <v>351</v>
+        <v>379</v>
       </c>
       <c r="G96" s="21" t="s">
         <v>313</v>
@@ -7374,7 +7314,7 @@
         <v>789</v>
       </c>
       <c r="M96" s="23" t="s">
-        <v>596</v>
+        <v>629</v>
       </c>
       <c r="N96" s="21" t="s">
         <v>618</v>
@@ -7391,19 +7331,19 @@
     </row>
     <row r="97" spans="1:17" collapsed="1">
       <c r="A97" s="29" t="s">
-        <v>103</v>
+        <v>167</v>
       </c>
       <c r="B97" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C97" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D97" s="23" t="s">
-        <v>479</v>
+        <v>514</v>
       </c>
       <c r="E97" s="21" t="s">
-        <v>352</v>
+        <v>380</v>
       </c>
       <c r="G97" s="21" t="s">
         <v>313</v>
@@ -7418,7 +7358,7 @@
         <v>789</v>
       </c>
       <c r="M97" s="23" t="s">
-        <v>597</v>
+        <v>630</v>
       </c>
       <c r="N97" s="21" t="s">
         <v>618</v>
@@ -7435,19 +7375,19 @@
     </row>
     <row r="98" spans="1:17" collapsed="1">
       <c r="A98" s="29" t="s">
-        <v>105</v>
+        <v>169</v>
       </c>
       <c r="B98" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C98" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D98" s="23" t="s">
-        <v>480</v>
+        <v>515</v>
       </c>
       <c r="E98" s="21" t="s">
-        <v>353</v>
+        <v>381</v>
       </c>
       <c r="G98" s="21" t="s">
         <v>313</v>
@@ -7462,7 +7402,7 @@
         <v>789</v>
       </c>
       <c r="M98" s="23" t="s">
-        <v>598</v>
+        <v>631</v>
       </c>
       <c r="N98" s="21" t="s">
         <v>618</v>
@@ -7479,19 +7419,19 @@
     </row>
     <row r="99" spans="1:17" collapsed="1">
       <c r="A99" s="29" t="s">
-        <v>107</v>
+        <v>171</v>
       </c>
       <c r="B99" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C99" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D99" s="23" t="s">
-        <v>481</v>
+        <v>516</v>
       </c>
       <c r="E99" s="21" t="s">
-        <v>354</v>
+        <v>382</v>
       </c>
       <c r="G99" s="21" t="s">
         <v>313</v>
@@ -7506,7 +7446,7 @@
         <v>789</v>
       </c>
       <c r="M99" s="23" t="s">
-        <v>599</v>
+        <v>632</v>
       </c>
       <c r="N99" s="21" t="s">
         <v>618</v>
@@ -7523,19 +7463,19 @@
     </row>
     <row r="100" spans="1:17" collapsed="1">
       <c r="A100" s="29" t="s">
-        <v>109</v>
+        <v>173</v>
       </c>
       <c r="B100" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C100" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D100" s="23" t="s">
-        <v>482</v>
+        <v>517</v>
       </c>
       <c r="E100" s="21" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="G100" s="21" t="s">
         <v>313</v>
@@ -7550,7 +7490,7 @@
         <v>789</v>
       </c>
       <c r="M100" s="23" t="s">
-        <v>600</v>
+        <v>633</v>
       </c>
       <c r="N100" s="21" t="s">
         <v>618</v>
@@ -7567,19 +7507,19 @@
     </row>
     <row r="101" spans="1:17" collapsed="1">
       <c r="A101" s="29" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="B101" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C101" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D101" s="23" t="s">
-        <v>483</v>
+        <v>518</v>
       </c>
       <c r="E101" s="21" t="s">
-        <v>356</v>
+        <v>384</v>
       </c>
       <c r="G101" s="21" t="s">
         <v>313</v>
@@ -7594,7 +7534,7 @@
         <v>789</v>
       </c>
       <c r="M101" s="23" t="s">
-        <v>601</v>
+        <v>634</v>
       </c>
       <c r="N101" s="21" t="s">
         <v>618</v>
@@ -7611,19 +7551,19 @@
     </row>
     <row r="102" spans="1:17" collapsed="1">
       <c r="A102" s="29" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="B102" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C102" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D102" s="23" t="s">
-        <v>484</v>
+        <v>519</v>
       </c>
       <c r="E102" s="21" t="s">
-        <v>357</v>
+        <v>385</v>
       </c>
       <c r="G102" s="21" t="s">
         <v>313</v>
@@ -7638,7 +7578,7 @@
         <v>789</v>
       </c>
       <c r="M102" s="23" t="s">
-        <v>602</v>
+        <v>635</v>
       </c>
       <c r="N102" s="21" t="s">
         <v>618</v>
@@ -7655,19 +7595,19 @@
     </row>
     <row r="103" spans="1:17" collapsed="1">
       <c r="A103" s="29" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="B103" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C103" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D103" s="23" t="s">
-        <v>485</v>
+        <v>520</v>
       </c>
       <c r="E103" s="21" t="s">
-        <v>358</v>
+        <v>386</v>
       </c>
       <c r="G103" s="21" t="s">
         <v>313</v>
@@ -7682,7 +7622,7 @@
         <v>789</v>
       </c>
       <c r="M103" s="23" t="s">
-        <v>603</v>
+        <v>636</v>
       </c>
       <c r="N103" s="21" t="s">
         <v>618</v>
@@ -7699,19 +7639,19 @@
     </row>
     <row r="104" spans="1:17" collapsed="1">
       <c r="A104" s="29" t="s">
-        <v>117</v>
+        <v>181</v>
       </c>
       <c r="B104" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C104" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D104" s="23" t="s">
-        <v>486</v>
+        <v>521</v>
       </c>
       <c r="E104" s="21" t="s">
-        <v>359</v>
+        <v>387</v>
       </c>
       <c r="G104" s="21" t="s">
         <v>313</v>
@@ -7726,7 +7666,7 @@
         <v>789</v>
       </c>
       <c r="M104" s="23" t="s">
-        <v>604</v>
+        <v>637</v>
       </c>
       <c r="N104" s="21" t="s">
         <v>618</v>
@@ -7743,19 +7683,19 @@
     </row>
     <row r="105" spans="1:17" collapsed="1">
       <c r="A105" s="29" t="s">
-        <v>119</v>
+        <v>183</v>
       </c>
       <c r="B105" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C105" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D105" s="23" t="s">
-        <v>487</v>
+        <v>522</v>
       </c>
       <c r="E105" s="21" t="s">
-        <v>360</v>
+        <v>388</v>
       </c>
       <c r="G105" s="21" t="s">
         <v>313</v>
@@ -7770,7 +7710,7 @@
         <v>789</v>
       </c>
       <c r="M105" s="23" t="s">
-        <v>605</v>
+        <v>638</v>
       </c>
       <c r="N105" s="21" t="s">
         <v>618</v>
@@ -7787,19 +7727,19 @@
     </row>
     <row r="106" spans="1:17" collapsed="1">
       <c r="A106" s="29" t="s">
-        <v>121</v>
+        <v>185</v>
       </c>
       <c r="B106" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C106" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D106" s="23" t="s">
-        <v>488</v>
+        <v>523</v>
       </c>
       <c r="E106" s="21" t="s">
-        <v>361</v>
+        <v>389</v>
       </c>
       <c r="G106" s="21" t="s">
         <v>313</v>
@@ -7814,7 +7754,7 @@
         <v>789</v>
       </c>
       <c r="M106" s="23" t="s">
-        <v>606</v>
+        <v>639</v>
       </c>
       <c r="N106" s="21" t="s">
         <v>618</v>
@@ -7831,19 +7771,19 @@
     </row>
     <row r="107" spans="1:17" collapsed="1">
       <c r="A107" s="29" t="s">
-        <v>123</v>
+        <v>187</v>
       </c>
       <c r="B107" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C107" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D107" s="23" t="s">
-        <v>489</v>
+        <v>524</v>
       </c>
       <c r="E107" s="21" t="s">
-        <v>362</v>
+        <v>390</v>
       </c>
       <c r="G107" s="21" t="s">
         <v>313</v>
@@ -7858,7 +7798,7 @@
         <v>789</v>
       </c>
       <c r="M107" s="23" t="s">
-        <v>607</v>
+        <v>640</v>
       </c>
       <c r="N107" s="21" t="s">
         <v>618</v>
@@ -7875,19 +7815,19 @@
     </row>
     <row r="108" spans="1:17" collapsed="1">
       <c r="A108" s="29" t="s">
-        <v>125</v>
+        <v>189</v>
       </c>
       <c r="B108" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C108" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D108" s="23" t="s">
-        <v>490</v>
+        <v>525</v>
       </c>
       <c r="E108" s="21" t="s">
-        <v>363</v>
+        <v>391</v>
       </c>
       <c r="G108" s="21" t="s">
         <v>313</v>
@@ -7902,7 +7842,7 @@
         <v>789</v>
       </c>
       <c r="M108" s="23" t="s">
-        <v>608</v>
+        <v>641</v>
       </c>
       <c r="N108" s="21" t="s">
         <v>618</v>
@@ -7919,19 +7859,19 @@
     </row>
     <row r="109" spans="1:17" collapsed="1">
       <c r="A109" s="29" t="s">
-        <v>127</v>
+        <v>191</v>
       </c>
       <c r="B109" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C109" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D109" s="23" t="s">
-        <v>491</v>
+        <v>526</v>
       </c>
       <c r="E109" s="21" t="s">
-        <v>364</v>
+        <v>392</v>
       </c>
       <c r="G109" s="21" t="s">
         <v>313</v>
@@ -7946,7 +7886,7 @@
         <v>789</v>
       </c>
       <c r="M109" s="23" t="s">
-        <v>609</v>
+        <v>642</v>
       </c>
       <c r="N109" s="21" t="s">
         <v>618</v>
@@ -7963,19 +7903,19 @@
     </row>
     <row r="110" spans="1:17" collapsed="1">
       <c r="A110" s="29" t="s">
-        <v>129</v>
+        <v>193</v>
       </c>
       <c r="B110" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C110" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D110" s="23" t="s">
-        <v>492</v>
+        <v>527</v>
       </c>
       <c r="E110" s="21" t="s">
-        <v>365</v>
+        <v>393</v>
       </c>
       <c r="G110" s="21" t="s">
         <v>313</v>
@@ -7990,7 +7930,7 @@
         <v>789</v>
       </c>
       <c r="M110" s="23" t="s">
-        <v>610</v>
+        <v>643</v>
       </c>
       <c r="N110" s="21" t="s">
         <v>618</v>
@@ -8007,19 +7947,19 @@
     </row>
     <row r="111" spans="1:17" collapsed="1">
       <c r="A111" s="29" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="B111" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C111" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D111" s="23" t="s">
-        <v>493</v>
+        <v>528</v>
       </c>
       <c r="E111" s="21" t="s">
-        <v>366</v>
+        <v>394</v>
       </c>
       <c r="G111" s="21" t="s">
         <v>313</v>
@@ -8034,7 +7974,7 @@
         <v>789</v>
       </c>
       <c r="M111" s="23" t="s">
-        <v>611</v>
+        <v>644</v>
       </c>
       <c r="N111" s="21" t="s">
         <v>618</v>
@@ -8051,19 +7991,19 @@
     </row>
     <row r="112" spans="1:17" collapsed="1">
       <c r="A112" s="29" t="s">
-        <v>133</v>
+        <v>197</v>
       </c>
       <c r="B112" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C112" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D112" s="23" t="s">
-        <v>494</v>
+        <v>529</v>
       </c>
       <c r="E112" s="21" t="s">
-        <v>367</v>
+        <v>395</v>
       </c>
       <c r="G112" s="21" t="s">
         <v>313</v>
@@ -8078,7 +8018,7 @@
         <v>789</v>
       </c>
       <c r="M112" s="23" t="s">
-        <v>612</v>
+        <v>645</v>
       </c>
       <c r="N112" s="21" t="s">
         <v>618</v>
@@ -8095,19 +8035,19 @@
     </row>
     <row r="113" spans="1:17" collapsed="1">
       <c r="A113" s="29" t="s">
-        <v>135</v>
+        <v>199</v>
       </c>
       <c r="B113" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C113" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D113" s="23" t="s">
-        <v>495</v>
+        <v>530</v>
       </c>
       <c r="E113" s="21" t="s">
-        <v>368</v>
+        <v>396</v>
       </c>
       <c r="G113" s="21" t="s">
         <v>313</v>
@@ -8122,7 +8062,7 @@
         <v>789</v>
       </c>
       <c r="M113" s="23" t="s">
-        <v>613</v>
+        <v>646</v>
       </c>
       <c r="N113" s="21" t="s">
         <v>618</v>
@@ -8139,19 +8079,19 @@
     </row>
     <row r="114" spans="1:17" collapsed="1">
       <c r="A114" s="29" t="s">
-        <v>137</v>
+        <v>201</v>
       </c>
       <c r="B114" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C114" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D114" s="23" t="s">
-        <v>496</v>
+        <v>531</v>
       </c>
       <c r="E114" s="21" t="s">
-        <v>369</v>
+        <v>397</v>
       </c>
       <c r="G114" s="21" t="s">
         <v>313</v>
@@ -8166,7 +8106,7 @@
         <v>789</v>
       </c>
       <c r="M114" s="23" t="s">
-        <v>614</v>
+        <v>647</v>
       </c>
       <c r="N114" s="21" t="s">
         <v>618</v>
@@ -8183,19 +8123,19 @@
     </row>
     <row r="115" spans="1:17" collapsed="1">
       <c r="A115" s="29" t="s">
-        <v>139</v>
+        <v>203</v>
       </c>
       <c r="B115" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C115" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D115" s="23" t="s">
-        <v>497</v>
+        <v>532</v>
       </c>
       <c r="E115" s="21" t="s">
-        <v>370</v>
+        <v>398</v>
       </c>
       <c r="G115" s="21" t="s">
         <v>313</v>
@@ -8210,7 +8150,7 @@
         <v>789</v>
       </c>
       <c r="M115" s="23" t="s">
-        <v>615</v>
+        <v>648</v>
       </c>
       <c r="N115" s="21" t="s">
         <v>618</v>
@@ -8227,19 +8167,19 @@
     </row>
     <row r="116" spans="1:17" collapsed="1">
       <c r="A116" s="29" t="s">
-        <v>141</v>
+        <v>205</v>
       </c>
       <c r="B116" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C116" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D116" s="23" t="s">
-        <v>498</v>
+        <v>533</v>
       </c>
       <c r="E116" s="21" t="s">
-        <v>371</v>
+        <v>399</v>
       </c>
       <c r="G116" s="21" t="s">
         <v>313</v>
@@ -8254,7 +8194,7 @@
         <v>789</v>
       </c>
       <c r="M116" s="23" t="s">
-        <v>616</v>
+        <v>649</v>
       </c>
       <c r="N116" s="21" t="s">
         <v>618</v>
@@ -8271,19 +8211,19 @@
     </row>
     <row r="117" spans="1:17" collapsed="1">
       <c r="A117" s="29" t="s">
-        <v>143</v>
+        <v>207</v>
       </c>
       <c r="B117" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C117" s="23" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D117" s="23" t="s">
-        <v>499</v>
+        <v>534</v>
       </c>
       <c r="E117" s="21" t="s">
-        <v>372</v>
+        <v>400</v>
       </c>
       <c r="G117" s="21" t="s">
         <v>313</v>
@@ -8298,7 +8238,7 @@
         <v>789</v>
       </c>
       <c r="M117" s="23" t="s">
-        <v>617</v>
+        <v>650</v>
       </c>
       <c r="N117" s="21" t="s">
         <v>618</v>
@@ -8315,19 +8255,19 @@
     </row>
     <row r="118" spans="1:17" collapsed="1">
       <c r="A118" s="29" t="s">
-        <v>50</v>
+        <v>209</v>
       </c>
       <c r="B118" s="24" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C118" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D118" s="23" t="s">
-        <v>450</v>
+        <v>535</v>
       </c>
       <c r="E118" s="21" t="s">
-        <v>277</v>
+        <v>401</v>
       </c>
       <c r="G118" s="21" t="s">
         <v>313</v>
@@ -8336,11 +8276,17 @@
         <v>312</v>
       </c>
       <c r="I118" s="21" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="J118" s="21" t="s">
         <v>789</v>
       </c>
+      <c r="M118" s="23" t="s">
+        <v>651</v>
+      </c>
+      <c r="N118" s="21" t="s">
+        <v>618</v>
+      </c>
       <c r="O118" s="30" t="s">
         <v>306</v>
       </c>
@@ -8353,19 +8299,19 @@
     </row>
     <row r="119" spans="1:17" collapsed="1">
       <c r="A119" s="29" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="B119" s="24" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="C119" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D119" s="23" t="s">
-        <v>451</v>
+        <v>536</v>
       </c>
       <c r="E119" s="21" t="s">
-        <v>277</v>
+        <v>402</v>
       </c>
       <c r="G119" s="21" t="s">
         <v>313</v>
@@ -8374,11 +8320,17 @@
         <v>312</v>
       </c>
       <c r="I119" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J119" s="21" t="s">
         <v>789</v>
       </c>
+      <c r="M119" s="23" t="s">
+        <v>652</v>
+      </c>
+      <c r="N119" s="21" t="s">
+        <v>618</v>
+      </c>
       <c r="O119" s="30" t="s">
         <v>306</v>
       </c>
@@ -8391,19 +8343,19 @@
     </row>
     <row r="120" spans="1:17" collapsed="1">
       <c r="A120" s="29" t="s">
-        <v>52</v>
+        <v>213</v>
       </c>
       <c r="B120" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C120" s="23" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D120" s="23" t="s">
-        <v>506</v>
+        <v>537</v>
       </c>
       <c r="E120" s="21" t="s">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="G120" s="21" t="s">
         <v>313</v>
@@ -8412,11 +8364,17 @@
         <v>312</v>
       </c>
       <c r="I120" s="21" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="J120" s="21" t="s">
         <v>789</v>
       </c>
+      <c r="M120" s="23" t="s">
+        <v>653</v>
+      </c>
+      <c r="N120" s="21" t="s">
+        <v>618</v>
+      </c>
       <c r="O120" s="30" t="s">
         <v>306</v>
       </c>
@@ -8429,23 +8387,26 @@
     </row>
     <row r="121" spans="1:17" collapsed="1">
       <c r="A121" s="29" t="s">
-        <v>27</v>
+        <v>215</v>
       </c>
       <c r="B121" s="24" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C121" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D121" s="23" t="s">
-        <v>439</v>
+        <v>538</v>
       </c>
       <c r="E121" s="21" t="s">
-        <v>325</v>
+        <v>404</v>
       </c>
       <c r="G121" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H121" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I121" s="21" t="s">
         <v>320</v>
       </c>
@@ -8453,7 +8414,7 @@
         <v>789</v>
       </c>
       <c r="M121" s="23" t="s">
-        <v>566</v>
+        <v>654</v>
       </c>
       <c r="N121" s="21" t="s">
         <v>618</v>
@@ -8470,23 +8431,26 @@
     </row>
     <row r="122" spans="1:17" collapsed="1">
       <c r="A122" s="29" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="B122" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C122" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D122" s="23" t="s">
-        <v>440</v>
+        <v>539</v>
       </c>
       <c r="E122" s="21" t="s">
-        <v>326</v>
+        <v>405</v>
       </c>
       <c r="G122" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H122" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I122" s="21" t="s">
         <v>320</v>
       </c>
@@ -8494,7 +8458,7 @@
         <v>789</v>
       </c>
       <c r="M122" s="23" t="s">
-        <v>567</v>
+        <v>655</v>
       </c>
       <c r="N122" s="21" t="s">
         <v>618</v>
@@ -8511,23 +8475,26 @@
     </row>
     <row r="123" spans="1:17" collapsed="1">
       <c r="A123" s="29" t="s">
-        <v>31</v>
+        <v>219</v>
       </c>
       <c r="B123" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C123" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D123" s="23" t="s">
-        <v>441</v>
+        <v>540</v>
       </c>
       <c r="E123" s="21" t="s">
-        <v>327</v>
+        <v>406</v>
       </c>
       <c r="G123" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H123" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I123" s="21" t="s">
         <v>320</v>
       </c>
@@ -8535,7 +8502,7 @@
         <v>789</v>
       </c>
       <c r="M123" s="23" t="s">
-        <v>568</v>
+        <v>656</v>
       </c>
       <c r="N123" s="21" t="s">
         <v>618</v>
@@ -8552,23 +8519,26 @@
     </row>
     <row r="124" spans="1:17" collapsed="1">
       <c r="A124" s="29" t="s">
-        <v>33</v>
+        <v>221</v>
       </c>
       <c r="B124" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C124" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D124" s="23" t="s">
-        <v>442</v>
+        <v>541</v>
       </c>
       <c r="E124" s="21" t="s">
-        <v>328</v>
+        <v>407</v>
       </c>
       <c r="G124" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H124" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I124" s="21" t="s">
         <v>320</v>
       </c>
@@ -8576,7 +8546,7 @@
         <v>789</v>
       </c>
       <c r="M124" s="23" t="s">
-        <v>569</v>
+        <v>657</v>
       </c>
       <c r="N124" s="21" t="s">
         <v>618</v>
@@ -8593,23 +8563,26 @@
     </row>
     <row r="125" spans="1:17" collapsed="1">
       <c r="A125" s="29" t="s">
-        <v>35</v>
+        <v>223</v>
       </c>
       <c r="B125" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C125" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D125" s="23" t="s">
-        <v>443</v>
+        <v>542</v>
       </c>
       <c r="E125" s="21" t="s">
-        <v>329</v>
+        <v>408</v>
       </c>
       <c r="G125" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H125" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I125" s="21" t="s">
         <v>320</v>
       </c>
@@ -8617,7 +8590,7 @@
         <v>789</v>
       </c>
       <c r="M125" s="23" t="s">
-        <v>570</v>
+        <v>658</v>
       </c>
       <c r="N125" s="21" t="s">
         <v>618</v>
@@ -8634,23 +8607,26 @@
     </row>
     <row r="126" spans="1:17" collapsed="1">
       <c r="A126" s="29" t="s">
-        <v>37</v>
+        <v>225</v>
       </c>
       <c r="B126" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C126" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D126" s="23" t="s">
-        <v>444</v>
+        <v>543</v>
       </c>
       <c r="E126" s="21" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="G126" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H126" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I126" s="21" t="s">
         <v>320</v>
       </c>
@@ -8658,7 +8634,7 @@
         <v>789</v>
       </c>
       <c r="M126" s="23" t="s">
-        <v>571</v>
+        <v>659</v>
       </c>
       <c r="N126" s="21" t="s">
         <v>618</v>
@@ -8675,23 +8651,26 @@
     </row>
     <row r="127" spans="1:17" collapsed="1">
       <c r="A127" s="29" t="s">
-        <v>39</v>
+        <v>227</v>
       </c>
       <c r="B127" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C127" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D127" s="23" t="s">
-        <v>445</v>
+        <v>544</v>
       </c>
       <c r="E127" s="21" t="s">
-        <v>331</v>
+        <v>410</v>
       </c>
       <c r="G127" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H127" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I127" s="21" t="s">
         <v>320</v>
       </c>
@@ -8699,7 +8678,7 @@
         <v>789</v>
       </c>
       <c r="M127" s="23" t="s">
-        <v>572</v>
+        <v>660</v>
       </c>
       <c r="N127" s="21" t="s">
         <v>618</v>
@@ -8716,23 +8695,26 @@
     </row>
     <row r="128" spans="1:17" collapsed="1">
       <c r="A128" s="29" t="s">
-        <v>41</v>
+        <v>229</v>
       </c>
       <c r="B128" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C128" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D128" s="23" t="s">
-        <v>446</v>
+        <v>545</v>
       </c>
       <c r="E128" s="21" t="s">
-        <v>332</v>
+        <v>411</v>
       </c>
       <c r="G128" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H128" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I128" s="21" t="s">
         <v>320</v>
       </c>
@@ -8740,7 +8722,7 @@
         <v>789</v>
       </c>
       <c r="M128" s="23" t="s">
-        <v>573</v>
+        <v>661</v>
       </c>
       <c r="N128" s="21" t="s">
         <v>618</v>
@@ -8757,23 +8739,26 @@
     </row>
     <row r="129" spans="1:17" collapsed="1">
       <c r="A129" s="29" t="s">
-        <v>43</v>
+        <v>231</v>
       </c>
       <c r="B129" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C129" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D129" s="23" t="s">
-        <v>447</v>
+        <v>546</v>
       </c>
       <c r="E129" s="21" t="s">
-        <v>333</v>
+        <v>412</v>
       </c>
       <c r="G129" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H129" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I129" s="21" t="s">
         <v>320</v>
       </c>
@@ -8781,7 +8766,7 @@
         <v>789</v>
       </c>
       <c r="M129" s="23" t="s">
-        <v>574</v>
+        <v>662</v>
       </c>
       <c r="N129" s="21" t="s">
         <v>618</v>
@@ -8798,29 +8783,38 @@
     </row>
     <row r="130" spans="1:17" collapsed="1">
       <c r="A130" s="29" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
       <c r="B130" s="24" t="s">
         <v>805</v>
       </c>
       <c r="C130" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D130" s="23" t="s">
-        <v>448</v>
+        <v>547</v>
       </c>
       <c r="E130" s="21" t="s">
-        <v>276</v>
+        <v>413</v>
       </c>
       <c r="G130" s="21" t="s">
         <v>313</v>
       </c>
+      <c r="H130" s="21" t="s">
+        <v>312</v>
+      </c>
       <c r="I130" s="21" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J130" s="21" t="s">
         <v>789</v>
       </c>
+      <c r="M130" s="23" t="s">
+        <v>663</v>
+      </c>
+      <c r="N130" s="21" t="s">
+        <v>618</v>
+      </c>
       <c r="O130" s="30" t="s">
         <v>306</v>
       </c>
@@ -8833,28 +8827,37 @@
     </row>
     <row r="131" spans="1:17" collapsed="1">
       <c r="A131" s="29" t="s">
-        <v>46</v>
+        <v>235</v>
       </c>
       <c r="B131" s="24" t="s">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="C131" s="23" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D131" s="23" t="s">
-        <v>449</v>
+        <v>548</v>
       </c>
       <c r="E131" s="21" t="s">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="G131" s="21" t="s">
-        <v>311</v>
+        <v>313</v>
+      </c>
+      <c r="H131" s="21" t="s">
+        <v>312</v>
       </c>
       <c r="I131" s="21" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="J131" s="21" t="s">
         <v>789</v>
+      </c>
+      <c r="M131" s="23" t="s">
+        <v>664</v>
+      </c>
+      <c r="N131" s="21" t="s">
+        <v>618</v>
       </c>
       <c r="O131" s="30" t="s">
         <v>306</v>
@@ -8875,7 +8878,7 @@
     <filterColumn colId="10"/>
     <filterColumn colId="11"/>
     <sortState ref="A2:N131">
-      <sortCondition ref="C1:C131"/>
+      <sortCondition ref="D1:D131"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="6" type="noConversion"/>
@@ -8886,265 +8889,265 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
-    <hyperlink ref="A5" r:id="rId2"/>
-    <hyperlink ref="A6" r:id="rId3"/>
-    <hyperlink ref="A9" r:id="rId4"/>
-    <hyperlink ref="A10" r:id="rId5"/>
-    <hyperlink ref="A19" r:id="rId6"/>
-    <hyperlink ref="A30" r:id="rId7"/>
-    <hyperlink ref="A35" r:id="rId8"/>
-    <hyperlink ref="A36" r:id="rId9"/>
+    <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="A4" r:id="rId3"/>
+    <hyperlink ref="A5" r:id="rId4"/>
+    <hyperlink ref="A6" r:id="rId5"/>
+    <hyperlink ref="A7" r:id="rId6"/>
+    <hyperlink ref="A8" r:id="rId7"/>
+    <hyperlink ref="A9" r:id="rId8"/>
+    <hyperlink ref="A10" r:id="rId9"/>
     <hyperlink ref="A11" r:id="rId10"/>
-    <hyperlink ref="A20" r:id="rId11"/>
-    <hyperlink ref="A31" r:id="rId12"/>
-    <hyperlink ref="A32" r:id="rId13"/>
-    <hyperlink ref="A33" r:id="rId14"/>
-    <hyperlink ref="A7" r:id="rId15"/>
-    <hyperlink ref="A8" r:id="rId16"/>
-    <hyperlink ref="A12" r:id="rId17"/>
-    <hyperlink ref="A13" r:id="rId18"/>
-    <hyperlink ref="A14" r:id="rId19"/>
-    <hyperlink ref="A34" r:id="rId20"/>
-    <hyperlink ref="A121" r:id="rId21"/>
-    <hyperlink ref="A122" r:id="rId22"/>
-    <hyperlink ref="A123" r:id="rId23"/>
-    <hyperlink ref="A124" r:id="rId24"/>
-    <hyperlink ref="A125" r:id="rId25"/>
-    <hyperlink ref="A126" r:id="rId26"/>
-    <hyperlink ref="A127" r:id="rId27"/>
-    <hyperlink ref="A128" r:id="rId28"/>
-    <hyperlink ref="A129" r:id="rId29"/>
-    <hyperlink ref="A130" r:id="rId30"/>
-    <hyperlink ref="A131" r:id="rId31"/>
-    <hyperlink ref="A17" r:id="rId32"/>
-    <hyperlink ref="A18" r:id="rId33"/>
-    <hyperlink ref="A118" r:id="rId34"/>
-    <hyperlink ref="A119" r:id="rId35"/>
-    <hyperlink ref="A120" r:id="rId36"/>
-    <hyperlink ref="A3" r:id="rId37"/>
-    <hyperlink ref="A4" r:id="rId38"/>
-    <hyperlink ref="A16" r:id="rId39"/>
-    <hyperlink ref="A21" r:id="rId40"/>
-    <hyperlink ref="A22" r:id="rId41"/>
-    <hyperlink ref="A23" r:id="rId42"/>
-    <hyperlink ref="A24" r:id="rId43"/>
-    <hyperlink ref="A25" r:id="rId44"/>
-    <hyperlink ref="A26" r:id="rId45"/>
-    <hyperlink ref="A79" r:id="rId46"/>
-    <hyperlink ref="A80" r:id="rId47"/>
-    <hyperlink ref="A81" r:id="rId48"/>
-    <hyperlink ref="A82" r:id="rId49"/>
-    <hyperlink ref="A83" r:id="rId50"/>
-    <hyperlink ref="A84" r:id="rId51"/>
-    <hyperlink ref="A85" r:id="rId52"/>
-    <hyperlink ref="A86" r:id="rId53"/>
-    <hyperlink ref="A87" r:id="rId54"/>
-    <hyperlink ref="A88" r:id="rId55"/>
-    <hyperlink ref="A89" r:id="rId56"/>
-    <hyperlink ref="A90" r:id="rId57"/>
-    <hyperlink ref="A91" r:id="rId58"/>
-    <hyperlink ref="A92" r:id="rId59"/>
-    <hyperlink ref="A93" r:id="rId60"/>
-    <hyperlink ref="A94" r:id="rId61"/>
-    <hyperlink ref="A95" r:id="rId62"/>
-    <hyperlink ref="A96" r:id="rId63"/>
-    <hyperlink ref="A97" r:id="rId64"/>
-    <hyperlink ref="A98" r:id="rId65"/>
-    <hyperlink ref="A99" r:id="rId66"/>
-    <hyperlink ref="A100" r:id="rId67"/>
-    <hyperlink ref="A101" r:id="rId68"/>
-    <hyperlink ref="A102" r:id="rId69"/>
-    <hyperlink ref="A103" r:id="rId70"/>
-    <hyperlink ref="A104" r:id="rId71"/>
-    <hyperlink ref="A105" r:id="rId72"/>
-    <hyperlink ref="A106" r:id="rId73"/>
-    <hyperlink ref="A107" r:id="rId74"/>
-    <hyperlink ref="A108" r:id="rId75"/>
-    <hyperlink ref="A109" r:id="rId76"/>
-    <hyperlink ref="A110" r:id="rId77"/>
-    <hyperlink ref="A111" r:id="rId78"/>
-    <hyperlink ref="A112" r:id="rId79"/>
-    <hyperlink ref="A113" r:id="rId80"/>
-    <hyperlink ref="A114" r:id="rId81"/>
-    <hyperlink ref="A115" r:id="rId82"/>
-    <hyperlink ref="A116" r:id="rId83"/>
-    <hyperlink ref="A117" r:id="rId84"/>
-    <hyperlink ref="A15" r:id="rId85"/>
-    <hyperlink ref="A27" r:id="rId86"/>
-    <hyperlink ref="A28" r:id="rId87"/>
-    <hyperlink ref="A29" r:id="rId88"/>
-    <hyperlink ref="A37" r:id="rId89"/>
-    <hyperlink ref="A38" r:id="rId90"/>
-    <hyperlink ref="A39" r:id="rId91"/>
-    <hyperlink ref="A40" r:id="rId92"/>
-    <hyperlink ref="A41" r:id="rId93"/>
-    <hyperlink ref="A42" r:id="rId94"/>
-    <hyperlink ref="A43" r:id="rId95"/>
-    <hyperlink ref="A44" r:id="rId96"/>
-    <hyperlink ref="A45" r:id="rId97"/>
-    <hyperlink ref="A46" r:id="rId98"/>
-    <hyperlink ref="A47" r:id="rId99"/>
-    <hyperlink ref="A48" r:id="rId100"/>
-    <hyperlink ref="A49" r:id="rId101"/>
-    <hyperlink ref="A50" r:id="rId102"/>
-    <hyperlink ref="A51" r:id="rId103"/>
-    <hyperlink ref="A52" r:id="rId104"/>
-    <hyperlink ref="A53" r:id="rId105"/>
-    <hyperlink ref="A54" r:id="rId106"/>
-    <hyperlink ref="A55" r:id="rId107"/>
-    <hyperlink ref="A56" r:id="rId108"/>
-    <hyperlink ref="A57" r:id="rId109"/>
-    <hyperlink ref="A58" r:id="rId110"/>
-    <hyperlink ref="A59" r:id="rId111"/>
-    <hyperlink ref="A60" r:id="rId112"/>
-    <hyperlink ref="A61" r:id="rId113"/>
-    <hyperlink ref="A62" r:id="rId114"/>
-    <hyperlink ref="A63" r:id="rId115"/>
-    <hyperlink ref="A64" r:id="rId116"/>
-    <hyperlink ref="A65" r:id="rId117"/>
-    <hyperlink ref="A66" r:id="rId118"/>
-    <hyperlink ref="A67" r:id="rId119"/>
-    <hyperlink ref="A68" r:id="rId120"/>
-    <hyperlink ref="A69" r:id="rId121"/>
-    <hyperlink ref="A70" r:id="rId122"/>
-    <hyperlink ref="A71" r:id="rId123"/>
-    <hyperlink ref="A72" r:id="rId124"/>
-    <hyperlink ref="A73" r:id="rId125"/>
-    <hyperlink ref="A74" r:id="rId126"/>
-    <hyperlink ref="A75" r:id="rId127"/>
-    <hyperlink ref="A76" r:id="rId128"/>
-    <hyperlink ref="A77" r:id="rId129"/>
-    <hyperlink ref="A78" r:id="rId130"/>
+    <hyperlink ref="A12" r:id="rId11"/>
+    <hyperlink ref="A13" r:id="rId12"/>
+    <hyperlink ref="A14" r:id="rId13"/>
+    <hyperlink ref="A15" r:id="rId14"/>
+    <hyperlink ref="A16" r:id="rId15"/>
+    <hyperlink ref="A17" r:id="rId16"/>
+    <hyperlink ref="A18" r:id="rId17"/>
+    <hyperlink ref="A19" r:id="rId18"/>
+    <hyperlink ref="A20" r:id="rId19"/>
+    <hyperlink ref="A21" r:id="rId20"/>
+    <hyperlink ref="A22" r:id="rId21"/>
+    <hyperlink ref="A23" r:id="rId22"/>
+    <hyperlink ref="A24" r:id="rId23"/>
+    <hyperlink ref="A25" r:id="rId24"/>
+    <hyperlink ref="A26" r:id="rId25"/>
+    <hyperlink ref="A27" r:id="rId26"/>
+    <hyperlink ref="A28" r:id="rId27"/>
+    <hyperlink ref="A29" r:id="rId28"/>
+    <hyperlink ref="A30" r:id="rId29"/>
+    <hyperlink ref="A31" r:id="rId30"/>
+    <hyperlink ref="A32" r:id="rId31"/>
+    <hyperlink ref="A84" r:id="rId32"/>
+    <hyperlink ref="A85" r:id="rId33"/>
+    <hyperlink ref="A33" r:id="rId34"/>
+    <hyperlink ref="A34" r:id="rId35"/>
+    <hyperlink ref="A89" r:id="rId36"/>
+    <hyperlink ref="A35" r:id="rId37"/>
+    <hyperlink ref="A36" r:id="rId38"/>
+    <hyperlink ref="A37" r:id="rId39"/>
+    <hyperlink ref="A38" r:id="rId40"/>
+    <hyperlink ref="A39" r:id="rId41"/>
+    <hyperlink ref="A40" r:id="rId42"/>
+    <hyperlink ref="A41" r:id="rId43"/>
+    <hyperlink ref="A42" r:id="rId44"/>
+    <hyperlink ref="A43" r:id="rId45"/>
+    <hyperlink ref="A44" r:id="rId46"/>
+    <hyperlink ref="A45" r:id="rId47"/>
+    <hyperlink ref="A46" r:id="rId48"/>
+    <hyperlink ref="A47" r:id="rId49"/>
+    <hyperlink ref="A48" r:id="rId50"/>
+    <hyperlink ref="A49" r:id="rId51"/>
+    <hyperlink ref="A50" r:id="rId52"/>
+    <hyperlink ref="A51" r:id="rId53"/>
+    <hyperlink ref="A52" r:id="rId54"/>
+    <hyperlink ref="A53" r:id="rId55"/>
+    <hyperlink ref="A54" r:id="rId56"/>
+    <hyperlink ref="A55" r:id="rId57"/>
+    <hyperlink ref="A56" r:id="rId58"/>
+    <hyperlink ref="A57" r:id="rId59"/>
+    <hyperlink ref="A58" r:id="rId60"/>
+    <hyperlink ref="A59" r:id="rId61"/>
+    <hyperlink ref="A60" r:id="rId62"/>
+    <hyperlink ref="A61" r:id="rId63"/>
+    <hyperlink ref="A62" r:id="rId64"/>
+    <hyperlink ref="A63" r:id="rId65"/>
+    <hyperlink ref="A64" r:id="rId66"/>
+    <hyperlink ref="A65" r:id="rId67"/>
+    <hyperlink ref="A66" r:id="rId68"/>
+    <hyperlink ref="A67" r:id="rId69"/>
+    <hyperlink ref="A68" r:id="rId70"/>
+    <hyperlink ref="A69" r:id="rId71"/>
+    <hyperlink ref="A70" r:id="rId72"/>
+    <hyperlink ref="A71" r:id="rId73"/>
+    <hyperlink ref="A72" r:id="rId74"/>
+    <hyperlink ref="A73" r:id="rId75"/>
+    <hyperlink ref="A74" r:id="rId76"/>
+    <hyperlink ref="A75" r:id="rId77"/>
+    <hyperlink ref="A76" r:id="rId78"/>
+    <hyperlink ref="A77" r:id="rId79"/>
+    <hyperlink ref="A78" r:id="rId80"/>
+    <hyperlink ref="A79" r:id="rId81"/>
+    <hyperlink ref="A80" r:id="rId82"/>
+    <hyperlink ref="A81" r:id="rId83"/>
+    <hyperlink ref="A82" r:id="rId84"/>
+    <hyperlink ref="A83" r:id="rId85"/>
+    <hyperlink ref="A86" r:id="rId86"/>
+    <hyperlink ref="A87" r:id="rId87"/>
+    <hyperlink ref="A88" r:id="rId88"/>
+    <hyperlink ref="A90" r:id="rId89"/>
+    <hyperlink ref="A91" r:id="rId90"/>
+    <hyperlink ref="A92" r:id="rId91"/>
+    <hyperlink ref="A93" r:id="rId92"/>
+    <hyperlink ref="A94" r:id="rId93"/>
+    <hyperlink ref="A95" r:id="rId94"/>
+    <hyperlink ref="A96" r:id="rId95"/>
+    <hyperlink ref="A97" r:id="rId96"/>
+    <hyperlink ref="A98" r:id="rId97"/>
+    <hyperlink ref="A99" r:id="rId98"/>
+    <hyperlink ref="A100" r:id="rId99"/>
+    <hyperlink ref="A101" r:id="rId100"/>
+    <hyperlink ref="A102" r:id="rId101"/>
+    <hyperlink ref="A103" r:id="rId102"/>
+    <hyperlink ref="A104" r:id="rId103"/>
+    <hyperlink ref="A105" r:id="rId104"/>
+    <hyperlink ref="A106" r:id="rId105"/>
+    <hyperlink ref="A107" r:id="rId106"/>
+    <hyperlink ref="A108" r:id="rId107"/>
+    <hyperlink ref="A109" r:id="rId108"/>
+    <hyperlink ref="A110" r:id="rId109"/>
+    <hyperlink ref="A111" r:id="rId110"/>
+    <hyperlink ref="A112" r:id="rId111"/>
+    <hyperlink ref="A113" r:id="rId112"/>
+    <hyperlink ref="A114" r:id="rId113"/>
+    <hyperlink ref="A115" r:id="rId114"/>
+    <hyperlink ref="A116" r:id="rId115"/>
+    <hyperlink ref="A117" r:id="rId116"/>
+    <hyperlink ref="A118" r:id="rId117"/>
+    <hyperlink ref="A119" r:id="rId118"/>
+    <hyperlink ref="A120" r:id="rId119"/>
+    <hyperlink ref="A121" r:id="rId120"/>
+    <hyperlink ref="A122" r:id="rId121"/>
+    <hyperlink ref="A123" r:id="rId122"/>
+    <hyperlink ref="A124" r:id="rId123"/>
+    <hyperlink ref="A125" r:id="rId124"/>
+    <hyperlink ref="A126" r:id="rId125"/>
+    <hyperlink ref="A127" r:id="rId126"/>
+    <hyperlink ref="A128" r:id="rId127"/>
+    <hyperlink ref="A129" r:id="rId128"/>
+    <hyperlink ref="A130" r:id="rId129"/>
+    <hyperlink ref="A131" r:id="rId130"/>
     <hyperlink ref="C2" r:id="rId131" display="170905_홍보부스_빅포럼 2017 세부프로그램 안내자료_경기콘텐츠진흥원.hwp"/>
-    <hyperlink ref="C5" r:id="rId132" display="170908_홍보부스_경기천년나무 소망메시지 추진계획(초안)_조병택.hwp"/>
-    <hyperlink ref="C6" r:id="rId133" display="170908_홍보부스_경기천년나무 소망메시지 추진계획(초안)_중앙컬처스클럽.hwp"/>
-    <hyperlink ref="C9" r:id="rId134" display="170912_홍보부스_경기천년나무 소망메시지 추진계획(안)_중앙컬처스클럽.hwp"/>
-    <hyperlink ref="C10" r:id="rId135" display="170912_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 추진계획(안) 수정_김정은.hwp"/>
-    <hyperlink ref="C19" r:id="rId136" display="170915_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 추진계획(안) 최종_김정은.hwp"/>
-    <hyperlink ref="C30" r:id="rId137" display="170918_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 추진계획(안)_조병택.pdf"/>
-    <hyperlink ref="C35" r:id="rId138" display="170919_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영을 위한 업무협의 회의운영비 지출_김효진.pdf"/>
-    <hyperlink ref="C36" r:id="rId139" display="170920_홍보부스_빅포럼 2017 연계 경기천년 홍보부스 운영 관련 회의운영_임혜원.pdf"/>
+    <hyperlink ref="C3" r:id="rId132" display="170908_홍보부스_경기천년나무 소망메시지 추진계획(초안)_조병택.hwp"/>
+    <hyperlink ref="C4" r:id="rId133" display="170908_홍보부스_경기천년나무 소망메시지 추진계획(초안)_중앙컬처스클럽.hwp"/>
+    <hyperlink ref="C5" r:id="rId134" display="170912_홍보부스_경기천년나무 소망메시지 추진계획(안)_중앙컬처스클럽.hwp"/>
+    <hyperlink ref="C6" r:id="rId135" display="170912_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 추진계획(안) 수정_김정은.hwp"/>
+    <hyperlink ref="C7" r:id="rId136" display="170915_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 추진계획(안) 최종_김정은.hwp"/>
+    <hyperlink ref="C8" r:id="rId137" display="170918_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 추진계획(안)_조병택.pdf"/>
+    <hyperlink ref="C9" r:id="rId138" display="170919_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영을 위한 업무협의 회의운영비 지출_김효진.pdf"/>
+    <hyperlink ref="C10" r:id="rId139" display="170920_홍보부스_빅포럼 2017 연계 경기천년 홍보부스 운영 관련 회의운영_임혜원.pdf"/>
     <hyperlink ref="C11" r:id="rId140" display="170912_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 과업내용서(초안)_중앙컬쳐스클럽.hwp"/>
-    <hyperlink ref="C20" r:id="rId141" display="170915_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 과업내용서(수정)_김정은.hwp"/>
-    <hyperlink ref="C31" r:id="rId142" display="170918_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 과업내용서(최종)_김정은.hwp"/>
-    <hyperlink ref="C32" r:id="rId143" display="170918_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 수의계약요청사유서_김정은.hwp"/>
-    <hyperlink ref="C33" r:id="rId144" display="170918_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 회사소개자료_중앙컬쳐스.hwp"/>
-    <hyperlink ref="C7" r:id="rId145" display="170908_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 견적서(비교)_웍스시스템.pdf"/>
-    <hyperlink ref="C8" r:id="rId146" display="170908_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 견적서(비교)_중앙컬쳐스클럽.xlsx"/>
-    <hyperlink ref="C12" r:id="rId147" display="170912_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 견적서(계약)_중앙컬쳐스클럽.pdf"/>
-    <hyperlink ref="C13" r:id="rId148" display="170912_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 견적서(계약)_중앙컬쳐스클럽.xlsx"/>
-    <hyperlink ref="C14" r:id="rId149" display="170912_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 견적서(제출)_중앙컬쳐스클럽.pdf"/>
-    <hyperlink ref="C34" r:id="rId150" display="170918_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 회사소개자료_중앙컬쳐스클럽.hwp"/>
-    <hyperlink ref="C121" r:id="rId151" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (1).jpg"/>
-    <hyperlink ref="C122" r:id="rId152" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (2).jpg"/>
-    <hyperlink ref="C123" r:id="rId153" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (3).jpg"/>
-    <hyperlink ref="C124" r:id="rId154" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (4).jpg"/>
-    <hyperlink ref="C125" r:id="rId155" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (5).jpg"/>
-    <hyperlink ref="C126" r:id="rId156" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (6).jpg"/>
-    <hyperlink ref="C127" r:id="rId157" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (7).jpg"/>
-    <hyperlink ref="C128" r:id="rId158" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (8).jpg"/>
-    <hyperlink ref="C129" r:id="rId159" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (9).jpg"/>
-    <hyperlink ref="C130" r:id="rId160" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은.hwp"/>
-    <hyperlink ref="C131" r:id="rId161" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_조병택.hwp"/>
-    <hyperlink ref="C17" r:id="rId162" display="170914_홍보부스_세부진행내용 소망나무(초안)_중앙컬쳐스클럽.pptx"/>
-    <hyperlink ref="C18" r:id="rId163" display="170914_홍보부스_세부진행내용 소망나무_중앙컬쳐스.pptx"/>
-    <hyperlink ref="C118" r:id="rId164" display="171017_홍보부스_결과보고서 소망나무_중앙컬쳐스.pdf"/>
-    <hyperlink ref="C119" r:id="rId165" display="171017_홍보부스_결과보고서 소망나무_중앙컬쳐스.pptx"/>
-    <hyperlink ref="C120" r:id="rId166" display="171017_홍보부스_소망나무 메시지 데이터 정리자료_중앙컬쳐스.xlsx"/>
-    <hyperlink ref="C3" r:id="rId167" display="170905_홍보부스_세부프로그램 안내자료_조병택.hwp"/>
-    <hyperlink ref="C4" r:id="rId168" display="170907_홍보부스_홍보관 사이즈_경기콘텐츠진흥원.pdf"/>
-    <hyperlink ref="C16" r:id="rId169" display="170914_홍보부스_시안 워딩(최종)_중앙컬쳐스.hwp"/>
-    <hyperlink ref="C21" r:id="rId170" display="170915_홍보부스_시안 워딩(최종)_중앙컬쳐스.hwp"/>
-    <hyperlink ref="C22" r:id="rId171" display="170915_홍보부스_시안(최종)_중앙컬쳐스.jpg"/>
-    <hyperlink ref="C23" r:id="rId172" display="170915_홍보부스_시안_중앙컬쳐스.jpg"/>
-    <hyperlink ref="C24" r:id="rId173" display="170915_홍보부스_월 워딩_조병택.hwp"/>
-    <hyperlink ref="C25" r:id="rId174" display="170915_홍보부스_현수막 시안(최종)_중앙컬쳐스.jpg"/>
-    <hyperlink ref="C26" r:id="rId175" display="170915_홍보부스_현수막 시안_중앙컬쳐스.jpg"/>
-    <hyperlink ref="C79" r:id="rId176" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (1).jpg"/>
-    <hyperlink ref="C80" r:id="rId177" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (2).jpg"/>
-    <hyperlink ref="C81" r:id="rId178" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (3).jpg"/>
-    <hyperlink ref="C82" r:id="rId179" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (4).jpg"/>
-    <hyperlink ref="C83" r:id="rId180" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (5).jpg"/>
-    <hyperlink ref="C84" r:id="rId181" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (6).jpg"/>
-    <hyperlink ref="C85" r:id="rId182" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (7).jpg"/>
-    <hyperlink ref="C86" r:id="rId183" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (8).jpg"/>
-    <hyperlink ref="C87" r:id="rId184" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (9).jpg"/>
-    <hyperlink ref="C88" r:id="rId185" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (10).jpg"/>
-    <hyperlink ref="C89" r:id="rId186" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (11).jpg"/>
-    <hyperlink ref="C90" r:id="rId187" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (12).jpg"/>
-    <hyperlink ref="C91" r:id="rId188" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (13).jpg"/>
-    <hyperlink ref="C92" r:id="rId189" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (14).jpg"/>
-    <hyperlink ref="C93" r:id="rId190" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (15).jpg"/>
-    <hyperlink ref="C94" r:id="rId191" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (16).jpg"/>
-    <hyperlink ref="C95" r:id="rId192" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (17).jpg"/>
-    <hyperlink ref="C96" r:id="rId193" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (18).jpg"/>
-    <hyperlink ref="C97" r:id="rId194" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (19).jpg"/>
-    <hyperlink ref="C98" r:id="rId195" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (20).jpg"/>
-    <hyperlink ref="C99" r:id="rId196" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (21).jpg"/>
-    <hyperlink ref="C100" r:id="rId197" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (22).jpg"/>
-    <hyperlink ref="C101" r:id="rId198" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (23).jpg"/>
-    <hyperlink ref="C102" r:id="rId199" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (24).jpg"/>
-    <hyperlink ref="C103" r:id="rId200" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (25).jpg"/>
-    <hyperlink ref="C104" r:id="rId201" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (26).jpg"/>
-    <hyperlink ref="C105" r:id="rId202" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (27).jpg"/>
-    <hyperlink ref="C106" r:id="rId203" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (28).jpg"/>
-    <hyperlink ref="C107" r:id="rId204" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (29).jpg"/>
-    <hyperlink ref="C108" r:id="rId205" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (30).jpg"/>
-    <hyperlink ref="C109" r:id="rId206" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (31).jpg"/>
-    <hyperlink ref="C110" r:id="rId207" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (32).jpg"/>
-    <hyperlink ref="C111" r:id="rId208" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (33).jpg"/>
-    <hyperlink ref="C112" r:id="rId209" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (34).jpg"/>
-    <hyperlink ref="C113" r:id="rId210" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (35).jpg"/>
-    <hyperlink ref="C114" r:id="rId211" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (36).jpg"/>
-    <hyperlink ref="C115" r:id="rId212" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (37).jpg"/>
-    <hyperlink ref="C116" r:id="rId213" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (38).jpg"/>
-    <hyperlink ref="C117" r:id="rId214" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (39).jpg"/>
-    <hyperlink ref="C15" r:id="rId215" display="170912_홍보부스_소망나무 시안 최종_중앙컬처스클럽.pdf"/>
-    <hyperlink ref="C27" r:id="rId216" display="170915_홍보부스_소망나무 메세지 카드 시안(최종)_중앙컬처스클럽.jpg"/>
-    <hyperlink ref="C28" r:id="rId217" display="170915_홍보부스_소망나무 폼보드 시안(최종)_중앙컬처스클럽.jpg"/>
-    <hyperlink ref="C29" r:id="rId218" display="170915_홍보부스_소망나무 폼보드 시안_중앙컬처스클럽.jpg"/>
-    <hyperlink ref="C37" r:id="rId219" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (1).jpg"/>
-    <hyperlink ref="C38" r:id="rId220" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (2).jpg"/>
-    <hyperlink ref="C39" r:id="rId221" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (3).jpg"/>
-    <hyperlink ref="C40" r:id="rId222" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (4).jpg"/>
-    <hyperlink ref="C41" r:id="rId223" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (5).jpg"/>
-    <hyperlink ref="C42" r:id="rId224" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (6).jpg"/>
-    <hyperlink ref="C43" r:id="rId225" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (7).jpg"/>
-    <hyperlink ref="C44" r:id="rId226" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (8).jpg"/>
-    <hyperlink ref="C45" r:id="rId227" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (9).jpg"/>
-    <hyperlink ref="C46" r:id="rId228" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (10).jpg"/>
-    <hyperlink ref="C47" r:id="rId229" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (11).jpg"/>
-    <hyperlink ref="C48" r:id="rId230" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (12).jpg"/>
-    <hyperlink ref="C49" r:id="rId231" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (13).jpg"/>
-    <hyperlink ref="C50" r:id="rId232" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (14).jpg"/>
-    <hyperlink ref="C51" r:id="rId233" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (15).jpg"/>
-    <hyperlink ref="C52" r:id="rId234" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (16).jpg"/>
-    <hyperlink ref="C53" r:id="rId235" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (17).jpg"/>
-    <hyperlink ref="C54" r:id="rId236" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (18).jpg"/>
-    <hyperlink ref="C55" r:id="rId237" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (19).jpg"/>
-    <hyperlink ref="C56" r:id="rId238" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (20).jpg"/>
-    <hyperlink ref="C57" r:id="rId239" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (21).jpg"/>
-    <hyperlink ref="C58" r:id="rId240" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (22).jpg"/>
-    <hyperlink ref="C59" r:id="rId241" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (23).jpg"/>
-    <hyperlink ref="C60" r:id="rId242" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (24).jpg"/>
-    <hyperlink ref="C61" r:id="rId243" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (25).jpg"/>
-    <hyperlink ref="C62" r:id="rId244" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (26).jpg"/>
-    <hyperlink ref="C63" r:id="rId245" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (27).jpg"/>
-    <hyperlink ref="C64" r:id="rId246" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (28).jpg"/>
-    <hyperlink ref="C65" r:id="rId247" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (29).jpg"/>
-    <hyperlink ref="C66" r:id="rId248" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (30).jpg"/>
-    <hyperlink ref="C67" r:id="rId249" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (31).jpg"/>
-    <hyperlink ref="C68" r:id="rId250" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (32).jpg"/>
-    <hyperlink ref="C69" r:id="rId251" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (33).jpg"/>
-    <hyperlink ref="C70" r:id="rId252" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (34).jpg"/>
-    <hyperlink ref="C71" r:id="rId253" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (35).jpg"/>
-    <hyperlink ref="C72" r:id="rId254" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (36).jpg"/>
-    <hyperlink ref="C73" r:id="rId255" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (37).jpg"/>
-    <hyperlink ref="C74" r:id="rId256" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (38).jpg"/>
-    <hyperlink ref="C75" r:id="rId257" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (39).jpg"/>
-    <hyperlink ref="C76" r:id="rId258" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (40).jpg"/>
-    <hyperlink ref="C77" r:id="rId259" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (41).jpg"/>
-    <hyperlink ref="C78" r:id="rId260" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (42).jpg"/>
+    <hyperlink ref="C12" r:id="rId141" display="170915_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 과업내용서(수정)_김정은.hwp"/>
+    <hyperlink ref="C13" r:id="rId142" display="170918_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 과업내용서(최종)_김정은.hwp"/>
+    <hyperlink ref="C14" r:id="rId143" display="170918_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 수의계약요청사유서_김정은.hwp"/>
+    <hyperlink ref="C15" r:id="rId144" display="170918_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 회사소개자료_중앙컬쳐스.hwp"/>
+    <hyperlink ref="C16" r:id="rId145" display="170908_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 견적서(비교)_웍스시스템.pdf"/>
+    <hyperlink ref="C17" r:id="rId146" display="170908_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 견적서(비교)_중앙컬쳐스클럽.xlsx"/>
+    <hyperlink ref="C18" r:id="rId147" display="170912_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 견적서(계약)_중앙컬쳐스클럽.pdf"/>
+    <hyperlink ref="C19" r:id="rId148" display="170912_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 견적서(계약)_중앙컬쳐스클럽.xlsx"/>
+    <hyperlink ref="C20" r:id="rId149" display="170912_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 견적서(제출)_중앙컬쳐스클럽.pdf"/>
+    <hyperlink ref="C21" r:id="rId150" display="170918_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 회사소개자료_중앙컬쳐스클럽.hwp"/>
+    <hyperlink ref="C22" r:id="rId151" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (1).jpg"/>
+    <hyperlink ref="C23" r:id="rId152" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (2).jpg"/>
+    <hyperlink ref="C24" r:id="rId153" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (3).jpg"/>
+    <hyperlink ref="C25" r:id="rId154" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (4).jpg"/>
+    <hyperlink ref="C26" r:id="rId155" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (5).jpg"/>
+    <hyperlink ref="C27" r:id="rId156" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (6).jpg"/>
+    <hyperlink ref="C28" r:id="rId157" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (7).jpg"/>
+    <hyperlink ref="C29" r:id="rId158" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (8).jpg"/>
+    <hyperlink ref="C30" r:id="rId159" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은 (9).jpg"/>
+    <hyperlink ref="C31" r:id="rId160" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_김정은.hwp"/>
+    <hyperlink ref="C32" r:id="rId161" display="171024_홍보부스_빅포럼 2017 연계 경기천년플랫폼 홍보부스 운영 용역 준공 사진대지_조병택.hwp"/>
+    <hyperlink ref="C84" r:id="rId162" display="170914_홍보부스_세부진행내용 소망나무(초안)_중앙컬쳐스클럽.pptx"/>
+    <hyperlink ref="C85" r:id="rId163" display="170914_홍보부스_세부진행내용 소망나무_중앙컬쳐스.pptx"/>
+    <hyperlink ref="C33" r:id="rId164" display="171017_홍보부스_결과보고서 소망나무_중앙컬쳐스.pdf"/>
+    <hyperlink ref="C34" r:id="rId165" display="171017_홍보부스_결과보고서 소망나무_중앙컬쳐스.pptx"/>
+    <hyperlink ref="C89" r:id="rId166" display="171017_홍보부스_소망나무 메시지 데이터 정리자료_중앙컬쳐스.xlsx"/>
+    <hyperlink ref="C35" r:id="rId167" display="170905_홍보부스_세부프로그램 안내자료_조병택.hwp"/>
+    <hyperlink ref="C36" r:id="rId168" display="170907_홍보부스_홍보관 사이즈_경기콘텐츠진흥원.pdf"/>
+    <hyperlink ref="C37" r:id="rId169" display="170914_홍보부스_시안 워딩(최종)_중앙컬쳐스.hwp"/>
+    <hyperlink ref="C38" r:id="rId170" display="170915_홍보부스_시안 워딩(최종)_중앙컬쳐스.hwp"/>
+    <hyperlink ref="C39" r:id="rId171" display="170915_홍보부스_시안(최종)_중앙컬쳐스.jpg"/>
+    <hyperlink ref="C40" r:id="rId172" display="170915_홍보부스_시안_중앙컬쳐스.jpg"/>
+    <hyperlink ref="C41" r:id="rId173" display="170915_홍보부스_월 워딩_조병택.hwp"/>
+    <hyperlink ref="C42" r:id="rId174" display="170915_홍보부스_현수막 시안(최종)_중앙컬쳐스.jpg"/>
+    <hyperlink ref="C43" r:id="rId175" display="170915_홍보부스_현수막 시안_중앙컬쳐스.jpg"/>
+    <hyperlink ref="C44" r:id="rId176" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (1).jpg"/>
+    <hyperlink ref="C45" r:id="rId177" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (2).jpg"/>
+    <hyperlink ref="C46" r:id="rId178" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (3).jpg"/>
+    <hyperlink ref="C47" r:id="rId179" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (4).jpg"/>
+    <hyperlink ref="C48" r:id="rId180" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (5).jpg"/>
+    <hyperlink ref="C49" r:id="rId181" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (6).jpg"/>
+    <hyperlink ref="C50" r:id="rId182" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (7).jpg"/>
+    <hyperlink ref="C51" r:id="rId183" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (8).jpg"/>
+    <hyperlink ref="C52" r:id="rId184" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (9).jpg"/>
+    <hyperlink ref="C53" r:id="rId185" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (10).jpg"/>
+    <hyperlink ref="C54" r:id="rId186" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (11).jpg"/>
+    <hyperlink ref="C55" r:id="rId187" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (12).jpg"/>
+    <hyperlink ref="C56" r:id="rId188" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (13).jpg"/>
+    <hyperlink ref="C57" r:id="rId189" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (14).jpg"/>
+    <hyperlink ref="C58" r:id="rId190" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (15).jpg"/>
+    <hyperlink ref="C59" r:id="rId191" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (16).jpg"/>
+    <hyperlink ref="C60" r:id="rId192" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (17).jpg"/>
+    <hyperlink ref="C61" r:id="rId193" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (18).jpg"/>
+    <hyperlink ref="C62" r:id="rId194" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (19).jpg"/>
+    <hyperlink ref="C63" r:id="rId195" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (20).jpg"/>
+    <hyperlink ref="C64" r:id="rId196" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (21).jpg"/>
+    <hyperlink ref="C65" r:id="rId197" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (22).jpg"/>
+    <hyperlink ref="C66" r:id="rId198" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (23).jpg"/>
+    <hyperlink ref="C67" r:id="rId199" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (24).jpg"/>
+    <hyperlink ref="C68" r:id="rId200" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (25).jpg"/>
+    <hyperlink ref="C69" r:id="rId201" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (26).jpg"/>
+    <hyperlink ref="C70" r:id="rId202" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (27).jpg"/>
+    <hyperlink ref="C71" r:id="rId203" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (28).jpg"/>
+    <hyperlink ref="C72" r:id="rId204" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (29).jpg"/>
+    <hyperlink ref="C73" r:id="rId205" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (30).jpg"/>
+    <hyperlink ref="C74" r:id="rId206" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (31).jpg"/>
+    <hyperlink ref="C75" r:id="rId207" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (32).jpg"/>
+    <hyperlink ref="C76" r:id="rId208" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (33).jpg"/>
+    <hyperlink ref="C77" r:id="rId209" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (34).jpg"/>
+    <hyperlink ref="C78" r:id="rId210" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (35).jpg"/>
+    <hyperlink ref="C79" r:id="rId211" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (36).jpg"/>
+    <hyperlink ref="C80" r:id="rId212" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (37).jpg"/>
+    <hyperlink ref="C81" r:id="rId213" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (38).jpg"/>
+    <hyperlink ref="C82" r:id="rId214" display="170921_홍보부스_행사 철거 사진_중앙컬처스클럽 (39).jpg"/>
+    <hyperlink ref="C83" r:id="rId215" display="170912_홍보부스_소망나무 시안 최종_중앙컬처스클럽.pdf"/>
+    <hyperlink ref="C86" r:id="rId216" display="170915_홍보부스_소망나무 메세지 카드 시안(최종)_중앙컬처스클럽.jpg"/>
+    <hyperlink ref="C87" r:id="rId217" display="170915_홍보부스_소망나무 폼보드 시안(최종)_중앙컬처스클럽.jpg"/>
+    <hyperlink ref="C88" r:id="rId218" display="170915_홍보부스_소망나무 폼보드 시안_중앙컬처스클럽.jpg"/>
+    <hyperlink ref="C90" r:id="rId219" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (1).jpg"/>
+    <hyperlink ref="C91" r:id="rId220" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (2).jpg"/>
+    <hyperlink ref="C92" r:id="rId221" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (3).jpg"/>
+    <hyperlink ref="C93" r:id="rId222" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (4).jpg"/>
+    <hyperlink ref="C94" r:id="rId223" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (5).jpg"/>
+    <hyperlink ref="C95" r:id="rId224" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (6).jpg"/>
+    <hyperlink ref="C96" r:id="rId225" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (7).jpg"/>
+    <hyperlink ref="C97" r:id="rId226" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (8).jpg"/>
+    <hyperlink ref="C98" r:id="rId227" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (9).jpg"/>
+    <hyperlink ref="C99" r:id="rId228" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (10).jpg"/>
+    <hyperlink ref="C100" r:id="rId229" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (11).jpg"/>
+    <hyperlink ref="C101" r:id="rId230" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (12).jpg"/>
+    <hyperlink ref="C102" r:id="rId231" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (13).jpg"/>
+    <hyperlink ref="C103" r:id="rId232" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (14).jpg"/>
+    <hyperlink ref="C104" r:id="rId233" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (15).jpg"/>
+    <hyperlink ref="C105" r:id="rId234" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (16).jpg"/>
+    <hyperlink ref="C106" r:id="rId235" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (17).jpg"/>
+    <hyperlink ref="C107" r:id="rId236" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (18).jpg"/>
+    <hyperlink ref="C108" r:id="rId237" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (19).jpg"/>
+    <hyperlink ref="C109" r:id="rId238" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (20).jpg"/>
+    <hyperlink ref="C110" r:id="rId239" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (21).jpg"/>
+    <hyperlink ref="C111" r:id="rId240" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (22).jpg"/>
+    <hyperlink ref="C112" r:id="rId241" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (23).jpg"/>
+    <hyperlink ref="C113" r:id="rId242" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (24).jpg"/>
+    <hyperlink ref="C114" r:id="rId243" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (25).jpg"/>
+    <hyperlink ref="C115" r:id="rId244" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (26).jpg"/>
+    <hyperlink ref="C116" r:id="rId245" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (27).jpg"/>
+    <hyperlink ref="C117" r:id="rId246" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (28).jpg"/>
+    <hyperlink ref="C118" r:id="rId247" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (29).jpg"/>
+    <hyperlink ref="C119" r:id="rId248" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (30).jpg"/>
+    <hyperlink ref="C120" r:id="rId249" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (31).jpg"/>
+    <hyperlink ref="C121" r:id="rId250" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (32).jpg"/>
+    <hyperlink ref="C122" r:id="rId251" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (33).jpg"/>
+    <hyperlink ref="C123" r:id="rId252" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (34).jpg"/>
+    <hyperlink ref="C124" r:id="rId253" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (35).jpg"/>
+    <hyperlink ref="C125" r:id="rId254" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (36).jpg"/>
+    <hyperlink ref="C126" r:id="rId255" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (37).jpg"/>
+    <hyperlink ref="C127" r:id="rId256" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (38).jpg"/>
+    <hyperlink ref="C128" r:id="rId257" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (39).jpg"/>
+    <hyperlink ref="C129" r:id="rId258" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (40).jpg"/>
+    <hyperlink ref="C130" r:id="rId259" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (41).jpg"/>
+    <hyperlink ref="C131" r:id="rId260" display="170920_홍보부스_소망나무 행사 진행 사진_중앙컬처스클럽 (42).jpg"/>
     <hyperlink ref="Q2:Q10" r:id="rId261" display="01_사업기획"/>
     <hyperlink ref="Q11:Q15" r:id="rId262" display="02_용역시행"/>
     <hyperlink ref="Q16:Q32" r:id="rId263" display="03_용역계약"/>
@@ -15177,6 +15180,6 @@
     <hyperlink ref="R11:R53" r:id="rId196" display="05_홍보부스"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId197"/>
 </worksheet>
 </file>